--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO引脚列表" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="731">
   <si>
     <t>信号名</t>
   </si>
@@ -1535,90 +1537,1000 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart_rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd_cs sdio_d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD卡SPI片选  SD卡SDIO数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>J7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V(GND)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND(L13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQM0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nWE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nCAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nRAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ2</t>
+  </si>
+  <si>
+    <t>DQ3</t>
+  </si>
+  <si>
+    <t>DQ4</t>
+  </si>
+  <si>
+    <t>DQ5</t>
+  </si>
+  <si>
+    <t>DQ6</t>
+  </si>
+  <si>
+    <t>DQ7</t>
+  </si>
+  <si>
+    <t>DQ8</t>
+  </si>
+  <si>
+    <t>DQ9</t>
+  </si>
+  <si>
+    <t>DQ10</t>
+  </si>
+  <si>
+    <t>DQ11</t>
+  </si>
+  <si>
+    <t>DQ12</t>
+  </si>
+  <si>
+    <t>DQ13</t>
+  </si>
+  <si>
+    <t>DQ14</t>
+  </si>
+  <si>
+    <t>DQ15</t>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>led1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>led2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>led3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>led4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M25P16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24LC04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PORT6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PORT7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PORT2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uart_rx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd_cs sdio_d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD卡SPI片选  SD卡SDIO数据</t>
+    <t>TF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF_DATA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF_DATA1</t>
+  </si>
+  <si>
+    <t>TF_DATA2</t>
+  </si>
+  <si>
+    <t>TF_DATA3</t>
+  </si>
+  <si>
+    <t>TF_CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1763,7 +2675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1795,6 +2707,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1855,7 +2768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1890,7 +2803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2101,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4403,7 +5316,7 @@
     </row>
     <row r="174" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E174" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -4875,7 +5788,7 @@
     <row r="206" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B206" s="6"/>
       <c r="E206" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5037,7 +5950,7 @@
     </row>
     <row r="217" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E217" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -5130,7 +6043,7 @@
         <v>362</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5288,7 +6201,7 @@
     </row>
     <row r="234" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E234" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5305,7 +6218,7 @@
         <v>396</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5331,7 +6244,7 @@
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -5398,7 +6311,7 @@
     </row>
     <row r="244" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>6</v>
@@ -5407,7 +6320,7 @@
         <v>322</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>435</v>
@@ -5553,7 +6466,7 @@
         <v>101</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5598,7 +6511,7 @@
     </row>
     <row r="254" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E254" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -5634,7 +6547,7 @@
     </row>
     <row r="257" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>6</v>
@@ -5670,12 +6583,12 @@
     </row>
     <row r="261" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E261" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E262" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5702,7 +6615,7 @@
     </row>
     <row r="265" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E265" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5712,7 +6625,7 @@
     </row>
     <row r="267" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E267" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5722,12 +6635,12 @@
     </row>
     <row r="269" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E269" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E270" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5855,7 +6768,7 @@
     </row>
     <row r="287" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E287" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -5865,7 +6778,7 @@
     </row>
     <row r="289" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E289" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6001,13 +6914,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A43:D43"/>
@@ -6021,9 +6927,3410 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>501</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>550</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>551</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>562</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>563</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>564</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>565</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>566</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>567</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>573</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>574</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>575</v>
+      </c>
+      <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>577</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>578</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>500</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>586</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>587</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>588</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>589</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>590</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>591</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>592</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>594</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>595</v>
+      </c>
+      <c r="C59">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>596</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>610</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>611</v>
+      </c>
+      <c r="C62">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>612</v>
+      </c>
+      <c r="C63">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>613</v>
+      </c>
+      <c r="C64">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>614</v>
+      </c>
+      <c r="C65">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>615</v>
+      </c>
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>617</v>
+      </c>
+      <c r="B69" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>618</v>
+      </c>
+      <c r="B70" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>542</v>
+      </c>
+      <c r="B80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>633</v>
+      </c>
+      <c r="B82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>634</v>
+      </c>
+      <c r="B83" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>636</v>
+      </c>
+      <c r="B84" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>637</v>
+      </c>
+      <c r="B85" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>641</v>
+      </c>
+      <c r="B87" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>642</v>
+      </c>
+      <c r="B88" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>643</v>
+      </c>
+      <c r="B89" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>644</v>
+      </c>
+      <c r="B90" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>645</v>
+      </c>
+      <c r="B91" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>646</v>
+      </c>
+      <c r="B92" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>647</v>
+      </c>
+      <c r="B93" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>648</v>
+      </c>
+      <c r="B94" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>649</v>
+      </c>
+      <c r="B95" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>650</v>
+      </c>
+      <c r="B96" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>651</v>
+      </c>
+      <c r="B97" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>652</v>
+      </c>
+      <c r="B98" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>653</v>
+      </c>
+      <c r="B99" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>654</v>
+      </c>
+      <c r="B100" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>655</v>
+      </c>
+      <c r="B101" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>656</v>
+      </c>
+      <c r="B102" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>657</v>
+      </c>
+      <c r="B103" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>658</v>
+      </c>
+      <c r="B104" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>659</v>
+      </c>
+      <c r="B105" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>660</v>
+      </c>
+      <c r="B106" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>661</v>
+      </c>
+      <c r="B107" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>682</v>
+      </c>
+      <c r="B109" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>683</v>
+      </c>
+      <c r="B110" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>684</v>
+      </c>
+      <c r="B111" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>685</v>
+      </c>
+      <c r="B112" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>690</v>
+      </c>
+      <c r="B114" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>691</v>
+      </c>
+      <c r="B115" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>692</v>
+      </c>
+      <c r="B116" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>693</v>
+      </c>
+      <c r="B117" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>699</v>
+      </c>
+      <c r="B120" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>701</v>
+      </c>
+      <c r="B121" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>703</v>
+      </c>
+      <c r="B122" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>704</v>
+      </c>
+      <c r="B123" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>708</v>
+      </c>
+      <c r="B126" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>709</v>
+      </c>
+      <c r="B127" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>713</v>
+      </c>
+      <c r="B130" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>714</v>
+      </c>
+      <c r="B131" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>715</v>
+      </c>
+      <c r="B132" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>716</v>
+      </c>
+      <c r="B133" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>717</v>
+      </c>
+      <c r="B134" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>718</v>
+      </c>
+      <c r="B135" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>726</v>
+      </c>
+      <c r="B138" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>728</v>
+      </c>
+      <c r="B139" t="s">
+        <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C14" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" t="s">
+        <v>690</v>
+      </c>
+      <c r="C16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>536</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B20">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>707</v>
+      </c>
+      <c r="B22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C22" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>536</v>
+      </c>
+      <c r="B23">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>541</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>541</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>541</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>541</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>693</v>
+      </c>
+      <c r="B29" t="s">
+        <v>693</v>
+      </c>
+      <c r="C29" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>691</v>
+      </c>
+      <c r="B30" t="s">
+        <v>691</v>
+      </c>
+      <c r="C30" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>536</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>536</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>536</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>536</v>
+      </c>
+      <c r="B35">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>698</v>
+      </c>
+      <c r="B36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C36" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>536</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>541</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>541</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>725</v>
+      </c>
+      <c r="B41" t="s">
+        <v>726</v>
+      </c>
+      <c r="C41" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>536</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>536</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>536</v>
+      </c>
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>725</v>
+      </c>
+      <c r="B46" t="s">
+        <v>728</v>
+      </c>
+      <c r="C46" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>536</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>541</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>541</v>
+      </c>
+      <c r="B49">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>541</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>541</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>698</v>
+      </c>
+      <c r="B52" t="s">
+        <v>703</v>
+      </c>
+      <c r="C52" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>536</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>536</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>536</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>536</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>536</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>536</v>
+      </c>
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>541</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>536</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>536</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>536</v>
+      </c>
+      <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>536</v>
+      </c>
+      <c r="B65">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>685</v>
+      </c>
+      <c r="B66" t="s">
+        <v>685</v>
+      </c>
+      <c r="C66" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>541</v>
+      </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>541</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>541</v>
+      </c>
+      <c r="B69">
+        <v>31</v>
+      </c>
+      <c r="C69" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>541</v>
+      </c>
+      <c r="B70">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>541</v>
+      </c>
+      <c r="B71">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>541</v>
+      </c>
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>684</v>
+      </c>
+      <c r="B73" t="s">
+        <v>684</v>
+      </c>
+      <c r="C73" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>536</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>536</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>536</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>536</v>
+      </c>
+      <c r="B77">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>536</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>536</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>712</v>
+      </c>
+      <c r="B80" t="s">
+        <v>718</v>
+      </c>
+      <c r="C80" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>541</v>
+      </c>
+      <c r="B81">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>541</v>
+      </c>
+      <c r="B82">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>541</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>712</v>
+      </c>
+      <c r="B84" t="s">
+        <v>717</v>
+      </c>
+      <c r="C84" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>536</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>541</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>536</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>698</v>
+      </c>
+      <c r="B89" t="s">
+        <v>701</v>
+      </c>
+      <c r="C89" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>698</v>
+      </c>
+      <c r="B90" t="s">
+        <v>699</v>
+      </c>
+      <c r="C90" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>712</v>
+      </c>
+      <c r="B91" t="s">
+        <v>716</v>
+      </c>
+      <c r="C91" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>541</v>
+      </c>
+      <c r="B92">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>541</v>
+      </c>
+      <c r="B93">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>541</v>
+      </c>
+      <c r="B94">
+        <v>38</v>
+      </c>
+      <c r="C94" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>541</v>
+      </c>
+      <c r="B95">
+        <v>39</v>
+      </c>
+      <c r="C95" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>541</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>541</v>
+      </c>
+      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>712</v>
+      </c>
+      <c r="B98" t="s">
+        <v>715</v>
+      </c>
+      <c r="C98" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>499</v>
+      </c>
+      <c r="B99">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>712</v>
+      </c>
+      <c r="B100" t="s">
+        <v>714</v>
+      </c>
+      <c r="C100" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>541</v>
+      </c>
+      <c r="B101">
+        <v>35</v>
+      </c>
+      <c r="C101" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>499</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>499</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>541</v>
+      </c>
+      <c r="B104">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>541</v>
+      </c>
+      <c r="B105">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>712</v>
+      </c>
+      <c r="B106" t="s">
+        <v>713</v>
+      </c>
+      <c r="C106" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>499</v>
+      </c>
+      <c r="B107">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>499</v>
+      </c>
+      <c r="B108">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>541</v>
+      </c>
+      <c r="B109">
+        <v>34</v>
+      </c>
+      <c r="C109" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>499</v>
+      </c>
+      <c r="B110">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>499</v>
+      </c>
+      <c r="B111">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>499</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>499</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>499</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>616</v>
+      </c>
+      <c r="B115" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>616</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>499</v>
+      </c>
+      <c r="B117">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>499</v>
+      </c>
+      <c r="B118">
+        <v>36</v>
+      </c>
+      <c r="C118" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>499</v>
+      </c>
+      <c r="B119">
+        <v>35</v>
+      </c>
+      <c r="C119" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>499</v>
+      </c>
+      <c r="B120">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>499</v>
+      </c>
+      <c r="B121">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>499</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>683</v>
+      </c>
+      <c r="B124" t="s">
+        <v>683</v>
+      </c>
+      <c r="C124" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>499</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>499</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>682</v>
+      </c>
+      <c r="B128" t="s">
+        <v>682</v>
+      </c>
+      <c r="C128" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>499</v>
+      </c>
+      <c r="B129">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>499</v>
+      </c>
+      <c r="B130">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>499</v>
+      </c>
+      <c r="B131">
+        <v>23</v>
+      </c>
+      <c r="C131" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>499</v>
+      </c>
+      <c r="B132">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>616</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C133" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>499</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>499</v>
+      </c>
+      <c r="B135">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>499</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>499</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>616</v>
+      </c>
+      <c r="B138" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>616</v>
+      </c>
+      <c r="B139" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>616</v>
+      </c>
+      <c r="B140" t="s">
+        <v>636</v>
+      </c>
+      <c r="C140" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>499</v>
+      </c>
+      <c r="B141">
+        <v>33</v>
+      </c>
+      <c r="C141" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>499</v>
+      </c>
+      <c r="B142">
+        <v>29</v>
+      </c>
+      <c r="C142" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>499</v>
+      </c>
+      <c r="B143">
+        <v>26</v>
+      </c>
+      <c r="C143" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>499</v>
+      </c>
+      <c r="B144">
+        <v>24</v>
+      </c>
+      <c r="C144" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>499</v>
+      </c>
+      <c r="B145">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>616</v>
+      </c>
+      <c r="B146" t="s">
+        <v>653</v>
+      </c>
+      <c r="C146" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>499</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>499</v>
+      </c>
+      <c r="B148">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>616</v>
+      </c>
+      <c r="B149" t="s">
+        <v>106</v>
+      </c>
+      <c r="C149" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>616</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>616</v>
+      </c>
+      <c r="B151" t="s">
+        <v>652</v>
+      </c>
+      <c r="C151" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>499</v>
+      </c>
+      <c r="B152">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>499</v>
+      </c>
+      <c r="B153">
+        <v>27</v>
+      </c>
+      <c r="C153" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>616</v>
+      </c>
+      <c r="B154" t="s">
+        <v>618</v>
+      </c>
+      <c r="C154" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>616</v>
+      </c>
+      <c r="B155" t="s">
+        <v>651</v>
+      </c>
+      <c r="C155" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>616</v>
+      </c>
+      <c r="B156" t="s">
+        <v>659</v>
+      </c>
+      <c r="C156" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>616</v>
+      </c>
+      <c r="B157" t="s">
+        <v>661</v>
+      </c>
+      <c r="C157" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>616</v>
+      </c>
+      <c r="B158" t="s">
+        <v>656</v>
+      </c>
+      <c r="C158" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>616</v>
+      </c>
+      <c r="B159" t="s">
+        <v>654</v>
+      </c>
+      <c r="C159" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>616</v>
+      </c>
+      <c r="B160" t="s">
+        <v>542</v>
+      </c>
+      <c r="C160" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>616</v>
+      </c>
+      <c r="B161" t="s">
+        <v>649</v>
+      </c>
+      <c r="C161" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>616</v>
+      </c>
+      <c r="B162" t="s">
+        <v>645</v>
+      </c>
+      <c r="C162" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>616</v>
+      </c>
+      <c r="B163" t="s">
+        <v>646</v>
+      </c>
+      <c r="C163" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>616</v>
+      </c>
+      <c r="B164" t="s">
+        <v>642</v>
+      </c>
+      <c r="C164" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>616</v>
+      </c>
+      <c r="B165" t="s">
+        <v>633</v>
+      </c>
+      <c r="C165" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>616</v>
+      </c>
+      <c r="B166" t="s">
+        <v>110</v>
+      </c>
+      <c r="C166" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>616</v>
+      </c>
+      <c r="B167" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>616</v>
+      </c>
+      <c r="B168" t="s">
+        <v>658</v>
+      </c>
+      <c r="C168" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>616</v>
+      </c>
+      <c r="B169" t="s">
+        <v>660</v>
+      </c>
+      <c r="C169" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>616</v>
+      </c>
+      <c r="B170" t="s">
+        <v>657</v>
+      </c>
+      <c r="C170" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>616</v>
+      </c>
+      <c r="B171" t="s">
+        <v>655</v>
+      </c>
+      <c r="C171" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>616</v>
+      </c>
+      <c r="B172" t="s">
+        <v>637</v>
+      </c>
+      <c r="C172" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>616</v>
+      </c>
+      <c r="B173" t="s">
+        <v>439</v>
+      </c>
+      <c r="C173" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>616</v>
+      </c>
+      <c r="B174" t="s">
+        <v>650</v>
+      </c>
+      <c r="C174" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>616</v>
+      </c>
+      <c r="B175" t="s">
+        <v>648</v>
+      </c>
+      <c r="C175" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>616</v>
+      </c>
+      <c r="B176" t="s">
+        <v>647</v>
+      </c>
+      <c r="C176" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>616</v>
+      </c>
+      <c r="B177" t="s">
+        <v>641</v>
+      </c>
+      <c r="C177" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>616</v>
+      </c>
+      <c r="B178" t="s">
+        <v>643</v>
+      </c>
+      <c r="C178" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>616</v>
+      </c>
+      <c r="B179" t="s">
+        <v>634</v>
+      </c>
+      <c r="C179" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>616</v>
+      </c>
+      <c r="B180" t="s">
+        <v>617</v>
+      </c>
+      <c r="C180" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>616</v>
+      </c>
+      <c r="B181" t="s">
+        <v>125</v>
+      </c>
+      <c r="C181" t="s">
+        <v>621</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C181">
+    <sortCondition ref="C154"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="IO引脚列表" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="742">
   <si>
     <t>信号名</t>
   </si>
@@ -2524,6 +2524,50 @@
   </si>
   <si>
     <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd_mosi sdio_cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output inout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD卡SPI串行输出数据 SD卡SDIO命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2561,7 +2605,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2586,8 +2630,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2671,11 +2721,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2695,9 +2760,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2707,7 +2789,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3012,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175:E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3041,12 +3122,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3063,12 +3144,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -3085,12 +3166,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -3149,12 +3230,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -3213,12 +3294,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3235,12 +3316,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -3257,12 +3338,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -3321,12 +3402,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -3525,12 +3606,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -3561,12 +3642,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -3821,12 +3902,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -4137,12 +4218,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="10"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
@@ -4159,12 +4240,12 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="10"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -4181,12 +4262,12 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
@@ -4217,12 +4298,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -4771,12 +4852,12 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="10"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="19"/>
     </row>
     <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
@@ -5003,12 +5084,12 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="10"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
@@ -5067,12 +5148,12 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="10"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -5158,15 +5239,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
+    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="10"/>
-    </row>
-    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="19"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>369</v>
       </c>
@@ -5180,7 +5261,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>371</v>
       </c>
@@ -5194,7 +5275,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>373</v>
       </c>
@@ -5208,7 +5289,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>375</v>
       </c>
@@ -5222,7 +5303,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>378</v>
       </c>
@@ -5236,7 +5317,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>381</v>
       </c>
@@ -5250,15 +5331,15 @@
         <v>383</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
+    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="10"/>
-    </row>
-    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>385</v>
       </c>
@@ -5272,7 +5353,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>388</v>
       </c>
@@ -5286,7 +5367,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>391</v>
       </c>
@@ -5300,7 +5381,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>394</v>
       </c>
@@ -5314,1603 +5395,1714 @@
         <v>396</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E174" s="6" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E175" s="6" t="s">
+      <c r="F174" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A175" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A176" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A177" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A178" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A179" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A180" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A181" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A182" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A183" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A184" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A185" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A186" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A187" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A188" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A189" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A190" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A191" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A192" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E176" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B179" s="5" t="s">
+    <row r="195" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A196" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F196" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A197" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A198" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A199" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A200" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A201" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A202" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A203" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A204" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A205" s="10"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A206" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A207" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D179" s="5" t="s">
+      <c r="C207" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E179" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B180" s="5" t="s">
+      <c r="E207" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A208" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D180" s="5" t="s">
+      <c r="C208" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E180" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B181" s="5" t="s">
+      <c r="E208" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A209" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D181" s="5" t="s">
+      <c r="C209" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E181" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B182" s="5" t="s">
+      <c r="E209" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A210" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="C210" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E182" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B183" s="5" t="s">
+      <c r="E210" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A211" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A212" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E195" s="6"/>
-    </row>
-    <row r="196" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E196" s="6" t="s">
+      <c r="C212" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A213" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B197" s="6"/>
-      <c r="E197" s="6" t="s">
+    <row r="215" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A215" s="12"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B206" s="6"/>
-      <c r="E206" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-    </row>
-    <row r="217" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A216" s="15"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+    </row>
+    <row r="217" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A217" s="16"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
       <c r="E217" s="6" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E218" s="6" t="s">
+      <c r="F217" s="14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E219" s="6" t="s">
+    <row r="219" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C220" s="5" t="s">
+    <row r="220" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A220" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C220" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D220" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E220" s="6" t="s">
+      <c r="D220" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="E220" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B221" s="5" t="s">
+    <row r="221" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A221" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A222" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A223" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E221" s="6"/>
-    </row>
-    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B223" s="5" t="s">
+      <c r="C223" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A224" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A225" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A226" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A227" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A228" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A229" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A230" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A231" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A232" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A234" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A235" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A236" s="9"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A238" s="15"/>
+      <c r="B238" s="15"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+    </row>
+    <row r="239" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F239" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A241" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B224" s="5" t="s">
+      <c r="C241" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A242" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A243" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A244" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A245" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A246" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A247" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A248" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E248" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A249" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F249">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A250" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A251" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A252" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A255" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A256" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F258">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E260" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F260" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F261" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A262" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A274" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E274" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A276" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A277" s="10"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F279" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A280" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F280" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A281" s="10"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="10"/>
+      <c r="D281" s="10"/>
+      <c r="E281" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A282" s="10"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="10"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A283" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="10"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A286" s="10"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="10"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A287" s="10"/>
+      <c r="B287" s="10"/>
+      <c r="C287" s="10"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="10"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="10"/>
+      <c r="D289" s="10"/>
+      <c r="E289" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A291" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B291" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E234" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E238" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="4"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="6"/>
-    </row>
-    <row r="240" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E240" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E241" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F245">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F246">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="F247">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F248">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F249">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F250">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E254" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E255" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F255">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F256">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F257">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E258" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F258">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E259" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F259">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E261" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E262" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E264" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E265" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E266" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E267" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E268" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E269" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E270" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E271" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E272" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E273" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E274" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E276" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E278" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E280" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E282" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E283" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E284" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E285" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E286" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E287" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E288" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E289" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E290" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E291" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C292" s="5" t="s">
+      <c r="C291" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D292" s="5" t="s">
+      <c r="D291" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E291" s="9" t="s">
         <v>465</v>
       </c>
     </row>
+    <row r="292" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A292" s="10"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="10"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
     <row r="293" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E293" s="7" t="s">
-        <v>466</v>
+      <c r="A293" s="10"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="10"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E294" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="4" t="s">
+      <c r="A294" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B295" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C295" s="5" t="s">
+      <c r="B294" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C294" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D295" s="5" t="s">
+      <c r="D294" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E295" s="6" t="s">
+      <c r="E294" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E296" s="6" t="s">
+    <row r="295" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A295" s="10"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="9" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="4"/>
-      <c r="B297" s="5"/>
-      <c r="C297" s="5"/>
-      <c r="D297" s="5"/>
-    </row>
-    <row r="298" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="4"/>
-      <c r="B298" s="5"/>
-      <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
-    </row>
-    <row r="299" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="4"/>
-      <c r="B299" s="5"/>
-      <c r="C299" s="5"/>
-      <c r="D299" s="5"/>
-    </row>
-    <row r="300" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="4"/>
-      <c r="B300" s="5"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
-    </row>
-    <row r="301" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="4"/>
-      <c r="B301" s="5"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
-    </row>
-    <row r="302" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="4"/>
-      <c r="B302" s="5"/>
-      <c r="C302" s="5"/>
-      <c r="D302" s="5"/>
-    </row>
-    <row r="303" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="4"/>
-      <c r="B303" s="5"/>
-      <c r="C303" s="5"/>
-      <c r="D303" s="5"/>
-    </row>
-    <row r="304" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
-      <c r="B304" s="5"/>
-      <c r="C304" s="5"/>
-      <c r="D304" s="5"/>
-    </row>
-    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
-      <c r="B306" s="5"/>
-      <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
-    </row>
-    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
-      <c r="B307" s="5"/>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
-    </row>
-    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
-      <c r="B308" s="5"/>
-      <c r="C308" s="5"/>
-      <c r="D308" s="5"/>
-    </row>
-    <row r="309" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
-      <c r="B309" s="5"/>
-      <c r="C309" s="5"/>
-      <c r="D309" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7948,7 +8140,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="7" t="s">
         <v>640</v>
       </c>
       <c r="B86" t="s">
@@ -8329,7 +8521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
@@ -9791,7 +9983,7 @@
       <c r="A133" t="s">
         <v>616</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="7" t="s">
         <v>640</v>
       </c>
       <c r="C133" t="s">

--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -2605,7 +2605,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2633,6 +2633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,7 +2746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2787,6 +2793,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3095,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175:E182"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E241" sqref="E241:E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6874,7 +6883,7 @@
       <c r="D274" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E274" s="9" t="s">
+      <c r="E274" s="20" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6900,7 +6909,7 @@
       <c r="D276" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E276" s="9" t="s">
+      <c r="E276" s="20" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7056,7 +7065,7 @@
       <c r="D291" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E291" s="9" t="s">
+      <c r="E291" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7091,7 +7100,7 @@
       <c r="D294" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E294" s="9" t="s">
+      <c r="E294" s="20" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7106,6 +7115,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A43:D43"/>
@@ -7119,13 +7135,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7137,8 +7146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IO引脚列表" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="sdram dimm" sheetId="6" r:id="rId4"/>
+    <sheet name="勤谋" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1073">
   <si>
     <t>信号名</t>
   </si>
@@ -2568,14 +2570,1083 @@
   </si>
   <si>
     <t>SD卡SPI串行输出数据 SD卡SDIO命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Non-Parity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>DQ0</t>
+  </si>
+  <si>
+    <t>Data 0</t>
+  </si>
+  <si>
+    <t>DQ1</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Data 3</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>+5 VDC or +3.3 VDC</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Data 4</t>
+  </si>
+  <si>
+    <t>Data 5</t>
+  </si>
+  <si>
+    <t>Data 6</t>
+  </si>
+  <si>
+    <t>Data 7</t>
+  </si>
+  <si>
+    <t>Data 8</t>
+  </si>
+  <si>
+    <t>Data 9</t>
+  </si>
+  <si>
+    <t>Data 10</t>
+  </si>
+  <si>
+    <t>Data 11</t>
+  </si>
+  <si>
+    <t>Data 12</t>
+  </si>
+  <si>
+    <t>Data 13</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Data 14</t>
+  </si>
+  <si>
+    <t>Data 15</t>
+  </si>
+  <si>
+    <t>n/c</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 0</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 01</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 8</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 9</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>/WE</t>
+  </si>
+  <si>
+    <t>Read/Write</t>
+  </si>
+  <si>
+    <t>DQMB0</t>
+  </si>
+  <si>
+    <t>Byte Mask signal 0</t>
+  </si>
+  <si>
+    <t>DQMB1</t>
+  </si>
+  <si>
+    <t>Byte Mask signal 1</t>
+  </si>
+  <si>
+    <t>/S0</t>
+  </si>
+  <si>
+    <t>Chip Select 0</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Don't Use</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>Address 0</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Address 4</t>
+  </si>
+  <si>
+    <t>Address 6</t>
+  </si>
+  <si>
+    <t>Address 8</t>
+  </si>
+  <si>
+    <t>A10/AP</t>
+  </si>
+  <si>
+    <t>Address 10</t>
+  </si>
+  <si>
+    <t>BA1</t>
+  </si>
+  <si>
+    <t>Bank Address 1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>CK0</t>
+  </si>
+  <si>
+    <t>Clock signal 0</t>
+  </si>
+  <si>
+    <t>/S2</t>
+  </si>
+  <si>
+    <t>Chip Select 2</t>
+  </si>
+  <si>
+    <t>DQMB2</t>
+  </si>
+  <si>
+    <t>Byte Mask signal 2</t>
+  </si>
+  <si>
+    <t>DQMB3</t>
+  </si>
+  <si>
+    <t>Byte Mask signal 3</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 10</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 11</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 2</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 3</t>
+  </si>
+  <si>
+    <t>DQ16</t>
+  </si>
+  <si>
+    <t>Data 16</t>
+  </si>
+  <si>
+    <t>DQ17</t>
+  </si>
+  <si>
+    <t>Data 17</t>
+  </si>
+  <si>
+    <t>DQ18</t>
+  </si>
+  <si>
+    <t>Data 18</t>
+  </si>
+  <si>
+    <t>DQ19</t>
+  </si>
+  <si>
+    <t>Data 19</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>DQ20</t>
+  </si>
+  <si>
+    <t>Data 20</t>
+  </si>
+  <si>
+    <t>Not connected</t>
+  </si>
+  <si>
+    <t>Vref,NC</t>
+  </si>
+  <si>
+    <t>CKE1</t>
+  </si>
+  <si>
+    <t>Clock Enable Signal 1</t>
+  </si>
+  <si>
+    <t>DQ21</t>
+  </si>
+  <si>
+    <t>Data 21</t>
+  </si>
+  <si>
+    <t>DQ22</t>
+  </si>
+  <si>
+    <t>Data 22</t>
+  </si>
+  <si>
+    <t>DQ23</t>
+  </si>
+  <si>
+    <t>Data 23</t>
+  </si>
+  <si>
+    <t>DQ24</t>
+  </si>
+  <si>
+    <t>Data 24</t>
+  </si>
+  <si>
+    <t>DQ25</t>
+  </si>
+  <si>
+    <t>Data 25</t>
+  </si>
+  <si>
+    <t>DQ26</t>
+  </si>
+  <si>
+    <t>Data 26</t>
+  </si>
+  <si>
+    <t>DQ27</t>
+  </si>
+  <si>
+    <t>Data 27</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>DQ28</t>
+  </si>
+  <si>
+    <t>Data 28</t>
+  </si>
+  <si>
+    <t>DQ29</t>
+  </si>
+  <si>
+    <t>Data 29</t>
+  </si>
+  <si>
+    <t>DQ30</t>
+  </si>
+  <si>
+    <t>Data 30</t>
+  </si>
+  <si>
+    <t>DQ31</t>
+  </si>
+  <si>
+    <t>Data 31</t>
+  </si>
+  <si>
+    <t>CK2</t>
+  </si>
+  <si>
+    <t>Clock signal 2</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>Serial Data</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>Serial Clock</t>
+  </si>
+  <si>
+    <t>DQ32</t>
+  </si>
+  <si>
+    <t>Data 32</t>
+  </si>
+  <si>
+    <t>DQ33</t>
+  </si>
+  <si>
+    <t>Data 33</t>
+  </si>
+  <si>
+    <t>DQ34</t>
+  </si>
+  <si>
+    <t>Data 34</t>
+  </si>
+  <si>
+    <t>DQ35</t>
+  </si>
+  <si>
+    <t>Data 35</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>DQ36</t>
+  </si>
+  <si>
+    <t>Data 36</t>
+  </si>
+  <si>
+    <t>DQ37</t>
+  </si>
+  <si>
+    <t>Data 37</t>
+  </si>
+  <si>
+    <t>DQ38</t>
+  </si>
+  <si>
+    <t>Data 38</t>
+  </si>
+  <si>
+    <t>DQ39</t>
+  </si>
+  <si>
+    <t>Data 39</t>
+  </si>
+  <si>
+    <t>DQ40</t>
+  </si>
+  <si>
+    <t>Data 40</t>
+  </si>
+  <si>
+    <t>DQ41</t>
+  </si>
+  <si>
+    <t>Data 41</t>
+  </si>
+  <si>
+    <t>DQ42</t>
+  </si>
+  <si>
+    <t>Data 42</t>
+  </si>
+  <si>
+    <t>DQ43</t>
+  </si>
+  <si>
+    <t>Data 43</t>
+  </si>
+  <si>
+    <t>DQ44</t>
+  </si>
+  <si>
+    <t>Data 44</t>
+  </si>
+  <si>
+    <t>DQ45</t>
+  </si>
+  <si>
+    <t>Data 45</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>DQ46</t>
+  </si>
+  <si>
+    <t>Data 46</t>
+  </si>
+  <si>
+    <t>DQ47</t>
+  </si>
+  <si>
+    <t>Data 47</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 4</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 5</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 12</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 13</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>/CAS</t>
+  </si>
+  <si>
+    <t>Column Address Strobe</t>
+  </si>
+  <si>
+    <t>DQMB4</t>
+  </si>
+  <si>
+    <t>DQMB5</t>
+  </si>
+  <si>
+    <t>/S1</t>
+  </si>
+  <si>
+    <t>Chip Select 1</t>
+  </si>
+  <si>
+    <t>/RAS</t>
+  </si>
+  <si>
+    <t>Row Address Strobe</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>Address 5</t>
+  </si>
+  <si>
+    <t>Address 7</t>
+  </si>
+  <si>
+    <t>Address 9</t>
+  </si>
+  <si>
+    <t>BA0</t>
+  </si>
+  <si>
+    <t>Bank Address 0</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>CK1</t>
+  </si>
+  <si>
+    <t>Clock signal 1</t>
+  </si>
+  <si>
+    <t>CKE0</t>
+  </si>
+  <si>
+    <t>Clock Enable Signal 0</t>
+  </si>
+  <si>
+    <t>/S3</t>
+  </si>
+  <si>
+    <t>Chip Select 3</t>
+  </si>
+  <si>
+    <t>DQMB6</t>
+  </si>
+  <si>
+    <t>Byte Mask signal 6</t>
+  </si>
+  <si>
+    <t>DQMB7</t>
+  </si>
+  <si>
+    <t>Byte Mask signal 7</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 14</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 15</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 6</t>
+  </si>
+  <si>
+    <t>Parity/Check Bit Input/Output 7</t>
+  </si>
+  <si>
+    <t>DQ48</t>
+  </si>
+  <si>
+    <t>Data 48</t>
+  </si>
+  <si>
+    <t>DQ49</t>
+  </si>
+  <si>
+    <t>Data 49</t>
+  </si>
+  <si>
+    <t>DQ50</t>
+  </si>
+  <si>
+    <t>Data 50</t>
+  </si>
+  <si>
+    <t>DQ51</t>
+  </si>
+  <si>
+    <t>Data 51</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>DQ52</t>
+  </si>
+  <si>
+    <t>Data 52</t>
+  </si>
+  <si>
+    <t>DQ53</t>
+  </si>
+  <si>
+    <t>Data 53</t>
+  </si>
+  <si>
+    <t>DQ54</t>
+  </si>
+  <si>
+    <t>Data 54</t>
+  </si>
+  <si>
+    <t>DQ55</t>
+  </si>
+  <si>
+    <t>Data 55</t>
+  </si>
+  <si>
+    <t>DQ56</t>
+  </si>
+  <si>
+    <t>Data 56</t>
+  </si>
+  <si>
+    <t>DQ57</t>
+  </si>
+  <si>
+    <t>Data 57</t>
+  </si>
+  <si>
+    <t>DQ58</t>
+  </si>
+  <si>
+    <t>Data 58</t>
+  </si>
+  <si>
+    <t>DQ59</t>
+  </si>
+  <si>
+    <t>Data 59</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>DQ60</t>
+  </si>
+  <si>
+    <t>Data 60</t>
+  </si>
+  <si>
+    <t>DQ61</t>
+  </si>
+  <si>
+    <t>Data 61</t>
+  </si>
+  <si>
+    <t>DQ62</t>
+  </si>
+  <si>
+    <t>Data 62</t>
+  </si>
+  <si>
+    <t>DQ63</t>
+  </si>
+  <si>
+    <t>Data 63</t>
+  </si>
+  <si>
+    <t>CK3</t>
+  </si>
+  <si>
+    <t>Clock signal 3</t>
+  </si>
+  <si>
+    <t>SA0</t>
+  </si>
+  <si>
+    <t>Serial address 0</t>
+  </si>
+  <si>
+    <t>SA1</t>
+  </si>
+  <si>
+    <t>Serial address 1</t>
+  </si>
+  <si>
+    <t>SA2</t>
+  </si>
+  <si>
+    <t>Serial address 2</t>
+  </si>
+  <si>
+    <t>CKE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/c A13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address 12 A12：13+2+9+3 128MByte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address 11 A11：12+2+9+3 64MByte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address 13 256M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byte Mask signal 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA14</t>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA15</t>
+  </si>
+  <si>
+    <t>AA16</t>
+  </si>
+  <si>
+    <t>AA17</t>
+  </si>
+  <si>
+    <t>AA18</t>
+  </si>
+  <si>
+    <t>AA19</t>
+  </si>
+  <si>
+    <t>AA20</t>
+  </si>
+  <si>
+    <t>Y22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB14</t>
+  </si>
+  <si>
+    <t>AB15</t>
+  </si>
+  <si>
+    <t>AB16</t>
+  </si>
+  <si>
+    <t>AB17</t>
+  </si>
+  <si>
+    <t>AB18</t>
+  </si>
+  <si>
+    <t>AB19</t>
+  </si>
+  <si>
+    <t>AB20</t>
+  </si>
+  <si>
+    <t>Y21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>CK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byte Mask signal 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2604,8 +3675,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2642,8 +3730,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8C8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2742,11 +3842,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2786,6 +3912,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2793,9 +3943,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2858,7 +4005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2893,7 +4040,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3104,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241:E258"/>
+    <sheetView topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3131,12 +4278,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3153,12 +4300,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -3175,12 +4322,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -3239,12 +4386,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -3303,12 +4450,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3325,12 +4472,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -3347,12 +4494,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -3411,12 +4558,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -3615,12 +4762,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -3651,12 +4798,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -3911,12 +5058,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -4227,12 +5374,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
@@ -4249,12 +5396,12 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="27"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -4271,12 +5418,12 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
     </row>
     <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
@@ -4307,12 +5454,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -4861,12 +6008,12 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="19"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="27"/>
     </row>
     <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
@@ -5093,12 +6240,12 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="19"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
@@ -5157,12 +6304,12 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="19"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="27"/>
     </row>
     <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -5249,12 +6396,12 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="19"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="27"/>
     </row>
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
@@ -5341,12 +6488,12 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="19"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="27"/>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
@@ -6883,7 +8030,7 @@
       <c r="D274" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E274" s="20" t="s">
+      <c r="E274" s="17" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6909,7 +8056,7 @@
       <c r="D276" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E276" s="20" t="s">
+      <c r="E276" s="17" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7065,7 +8212,7 @@
       <c r="D291" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E291" s="20" t="s">
+      <c r="E291" s="17" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7100,7 +8247,7 @@
       <c r="D294" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E294" s="20" t="s">
+      <c r="E294" s="17" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7146,8 +8293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8528,34 +9675,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H177" sqref="H177"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>616</v>
+        <v>707</v>
       </c>
       <c r="B1" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="C1" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
+        <v>707</v>
+      </c>
+      <c r="B2" t="s">
+        <v>709</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -8582,46 +9729,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -8629,10 +9776,10 @@
         <v>541</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -8640,10 +9787,10 @@
         <v>541</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -8651,10 +9798,10 @@
         <v>541</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -8662,10 +9809,10 @@
         <v>541</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -8673,120 +9820,120 @@
         <v>541</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B14" t="s">
-        <v>708</v>
+        <v>541</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>710</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>692</v>
-      </c>
-      <c r="B15" t="s">
-        <v>692</v>
+        <v>541</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>696</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" t="s">
-        <v>690</v>
+        <v>541</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>694</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>604</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>707</v>
-      </c>
-      <c r="B22" t="s">
-        <v>709</v>
+        <v>541</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>711</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B23">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -8794,10 +9941,10 @@
         <v>541</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -8805,10 +9952,10 @@
         <v>541</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -8816,10 +9963,10 @@
         <v>541</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -8827,10 +9974,10 @@
         <v>541</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -8838,274 +9985,277 @@
         <v>541</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>693</v>
-      </c>
-      <c r="B29" t="s">
-        <v>693</v>
+        <v>541</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>697</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B30" t="s">
-        <v>691</v>
+        <v>541</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>695</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B35">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>698</v>
-      </c>
-      <c r="B36" t="s">
-        <v>704</v>
+        <v>541</v>
+      </c>
+      <c r="B36">
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>541</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>541</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>541</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>725</v>
-      </c>
-      <c r="B41" t="s">
-        <v>726</v>
+        <v>541</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>571</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>536</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>536</v>
       </c>
       <c r="B44">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>536</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>725</v>
-      </c>
-      <c r="B46" t="s">
-        <v>728</v>
+        <v>536</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>536</v>
       </c>
       <c r="B47">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B48">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>561</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B49">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>556</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>698</v>
-      </c>
-      <c r="B52" t="s">
-        <v>703</v>
+        <v>536</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>705</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -9113,10 +10263,10 @@
         <v>536</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -9124,10 +10274,10 @@
         <v>536</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -9135,10 +10285,10 @@
         <v>536</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -9146,10 +10296,10 @@
         <v>536</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -9157,10 +10307,10 @@
         <v>536</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -9168,10 +10318,10 @@
         <v>536</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -9179,21 +10329,21 @@
         <v>536</v>
       </c>
       <c r="B59">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -9201,10 +10351,10 @@
         <v>536</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -9212,10 +10362,10 @@
         <v>536</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -9223,10 +10373,10 @@
         <v>536</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -9234,10 +10384,10 @@
         <v>536</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -9245,98 +10395,98 @@
         <v>536</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>685</v>
-      </c>
-      <c r="B66" t="s">
-        <v>685</v>
+        <v>536</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>689</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B67">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B68">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B69">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B70">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B71">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B72">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>684</v>
-      </c>
-      <c r="B73" t="s">
-        <v>684</v>
+        <v>536</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>688</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -9344,10 +10494,10 @@
         <v>536</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -9355,10 +10505,10 @@
         <v>536</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -9366,10 +10516,10 @@
         <v>536</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -9377,10 +10527,10 @@
         <v>536</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -9388,10 +10538,10 @@
         <v>536</v>
       </c>
       <c r="B78">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -9399,219 +10549,237 @@
         <v>536</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>712</v>
-      </c>
-      <c r="B80" t="s">
-        <v>718</v>
+        <v>536</v>
+      </c>
+      <c r="B80">
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B81">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+      <c r="D81">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>712</v>
-      </c>
-      <c r="B84" t="s">
-        <v>717</v>
+        <v>499</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>499</v>
+      </c>
+      <c r="B86">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
         <v>536</v>
       </c>
-      <c r="B85">
+      <c r="D86">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>973</v>
+      </c>
+      <c r="F86">
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>499</v>
+      </c>
+      <c r="B87">
         <v>2</v>
       </c>
-      <c r="C85" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>541</v>
-      </c>
-      <c r="B86">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>536</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="G87">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>499</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>698</v>
-      </c>
-      <c r="B89" t="s">
-        <v>701</v>
+        <v>499</v>
+      </c>
+      <c r="B89">
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>698</v>
-      </c>
-      <c r="B90" t="s">
-        <v>699</v>
+        <v>499</v>
+      </c>
+      <c r="B90">
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>712</v>
-      </c>
-      <c r="B91" t="s">
-        <v>716</v>
+        <v>499</v>
+      </c>
+      <c r="B91">
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B92">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B93">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>499</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>499</v>
+      </c>
+      <c r="B96">
         <v>38</v>
       </c>
-      <c r="C94" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>541</v>
-      </c>
-      <c r="B95">
-        <v>39</v>
-      </c>
-      <c r="C95" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>541</v>
-      </c>
-      <c r="B96">
-        <v>22</v>
-      </c>
       <c r="C96" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B97">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>712</v>
-      </c>
-      <c r="B98" t="s">
-        <v>715</v>
+        <v>499</v>
+      </c>
+      <c r="B98">
+        <v>35</v>
       </c>
       <c r="C98" t="s">
-        <v>721</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -9619,32 +10787,32 @@
         <v>499</v>
       </c>
       <c r="B99">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>712</v>
-      </c>
-      <c r="B100" t="s">
-        <v>714</v>
+        <v>499</v>
+      </c>
+      <c r="B100">
+        <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>720</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B101">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -9652,10 +10820,10 @@
         <v>499</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -9663,43 +10831,43 @@
         <v>499</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>712</v>
-      </c>
-      <c r="B106" t="s">
-        <v>713</v>
+        <v>499</v>
+      </c>
+      <c r="B106">
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>719</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -9707,10 +10875,10 @@
         <v>499</v>
       </c>
       <c r="B107">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -9718,21 +10886,21 @@
         <v>499</v>
       </c>
       <c r="B108">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B109">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -9740,10 +10908,10 @@
         <v>499</v>
       </c>
       <c r="B110">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -9751,10 +10919,10 @@
         <v>499</v>
       </c>
       <c r="B111">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -9762,10 +10930,10 @@
         <v>499</v>
       </c>
       <c r="B112">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -9773,10 +10941,10 @@
         <v>499</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -9784,32 +10952,32 @@
         <v>499</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>616</v>
-      </c>
-      <c r="B115" t="s">
-        <v>112</v>
+        <v>499</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>624</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>616</v>
-      </c>
-      <c r="B116" t="s">
-        <v>131</v>
+        <v>499</v>
+      </c>
+      <c r="B116">
+        <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>623</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -9817,10 +10985,10 @@
         <v>499</v>
       </c>
       <c r="B117">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -9828,10 +10996,10 @@
         <v>499</v>
       </c>
       <c r="B118">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -9839,10 +11007,10 @@
         <v>499</v>
       </c>
       <c r="B119">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -9850,10 +11018,10 @@
         <v>499</v>
       </c>
       <c r="B120">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -9861,10 +11029,10 @@
         <v>499</v>
       </c>
       <c r="B121">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -9872,21 +11040,21 @@
         <v>499</v>
       </c>
       <c r="B122">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>499</v>
-      </c>
-      <c r="B123">
-        <v>15</v>
+        <v>682</v>
+      </c>
+      <c r="B123" t="s">
+        <v>682</v>
       </c>
       <c r="C123" t="s">
-        <v>519</v>
+        <v>686</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -9902,156 +11070,156 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>499</v>
-      </c>
-      <c r="B125">
-        <v>18</v>
+        <v>684</v>
+      </c>
+      <c r="B125" t="s">
+        <v>684</v>
       </c>
       <c r="C125" t="s">
-        <v>515</v>
+        <v>688</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>499</v>
-      </c>
-      <c r="B126">
-        <v>13</v>
+        <v>685</v>
+      </c>
+      <c r="B126" t="s">
+        <v>685</v>
       </c>
       <c r="C126" t="s">
-        <v>518</v>
+        <v>689</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>499</v>
-      </c>
-      <c r="B127">
-        <v>8</v>
+        <v>690</v>
+      </c>
+      <c r="B127" t="s">
+        <v>690</v>
       </c>
       <c r="C127" t="s">
-        <v>509</v>
+        <v>694</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B128" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C128" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>499</v>
-      </c>
-      <c r="B129">
-        <v>28</v>
+        <v>692</v>
+      </c>
+      <c r="B129" t="s">
+        <v>692</v>
       </c>
       <c r="C129" t="s">
-        <v>526</v>
+        <v>696</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>499</v>
-      </c>
-      <c r="B130">
-        <v>25</v>
+        <v>693</v>
+      </c>
+      <c r="B130" t="s">
+        <v>693</v>
       </c>
       <c r="C130" t="s">
-        <v>530</v>
+        <v>697</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>499</v>
-      </c>
-      <c r="B131">
-        <v>23</v>
+        <v>698</v>
+      </c>
+      <c r="B131" t="s">
+        <v>704</v>
       </c>
       <c r="C131" t="s">
-        <v>529</v>
+        <v>706</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>499</v>
-      </c>
-      <c r="B132">
-        <v>19</v>
+        <v>698</v>
+      </c>
+      <c r="B132" t="s">
+        <v>703</v>
       </c>
       <c r="C132" t="s">
-        <v>521</v>
+        <v>705</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>616</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>640</v>
+        <v>698</v>
+      </c>
+      <c r="B133" t="s">
+        <v>701</v>
       </c>
       <c r="C133" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>499</v>
-      </c>
-      <c r="B134">
-        <v>16</v>
+        <v>698</v>
+      </c>
+      <c r="B134" t="s">
+        <v>699</v>
       </c>
       <c r="C134" t="s">
-        <v>514</v>
+        <v>700</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>499</v>
-      </c>
-      <c r="B135">
-        <v>11</v>
+        <v>616</v>
+      </c>
+      <c r="B135" t="s">
+        <v>644</v>
       </c>
       <c r="C135" t="s">
-        <v>517</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>499</v>
-      </c>
-      <c r="B136">
-        <v>10</v>
+        <v>616</v>
+      </c>
+      <c r="B136" t="s">
+        <v>112</v>
       </c>
       <c r="C136" t="s">
-        <v>511</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>499</v>
-      </c>
-      <c r="B137">
-        <v>7</v>
+        <v>616</v>
+      </c>
+      <c r="B137" t="s">
+        <v>131</v>
       </c>
       <c r="C137" t="s">
-        <v>508</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>616</v>
       </c>
-      <c r="B138" t="s">
-        <v>121</v>
+      <c r="B138" s="7" t="s">
+        <v>640</v>
       </c>
       <c r="C138" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -10059,10 +11227,10 @@
         <v>616</v>
       </c>
       <c r="B139" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C139" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -10070,65 +11238,65 @@
         <v>616</v>
       </c>
       <c r="B140" t="s">
-        <v>636</v>
+        <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>499</v>
-      </c>
-      <c r="B141">
-        <v>33</v>
+        <v>616</v>
+      </c>
+      <c r="B141" t="s">
+        <v>636</v>
       </c>
       <c r="C141" t="s">
-        <v>534</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>499</v>
-      </c>
-      <c r="B142">
-        <v>29</v>
+        <v>616</v>
+      </c>
+      <c r="B142" t="s">
+        <v>653</v>
       </c>
       <c r="C142" t="s">
-        <v>532</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>499</v>
-      </c>
-      <c r="B143">
-        <v>26</v>
+        <v>616</v>
+      </c>
+      <c r="B143" t="s">
+        <v>106</v>
       </c>
       <c r="C143" t="s">
-        <v>525</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>499</v>
-      </c>
-      <c r="B144">
-        <v>24</v>
+        <v>616</v>
+      </c>
+      <c r="B144" t="s">
+        <v>101</v>
       </c>
       <c r="C144" t="s">
-        <v>524</v>
+        <v>627</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>499</v>
-      </c>
-      <c r="B145">
-        <v>20</v>
+        <v>616</v>
+      </c>
+      <c r="B145" t="s">
+        <v>652</v>
       </c>
       <c r="C145" t="s">
-        <v>516</v>
+        <v>673</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -10136,32 +11304,32 @@
         <v>616</v>
       </c>
       <c r="B146" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="C146" t="s">
-        <v>674</v>
+        <v>620</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>499</v>
-      </c>
-      <c r="B147">
-        <v>17</v>
+        <v>616</v>
+      </c>
+      <c r="B147" t="s">
+        <v>651</v>
       </c>
       <c r="C147" t="s">
-        <v>520</v>
+        <v>730</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>499</v>
-      </c>
-      <c r="B148">
-        <v>9</v>
+        <v>616</v>
+      </c>
+      <c r="B148" t="s">
+        <v>659</v>
       </c>
       <c r="C148" t="s">
-        <v>510</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -10169,10 +11337,10 @@
         <v>616</v>
       </c>
       <c r="B149" t="s">
-        <v>106</v>
+        <v>661</v>
       </c>
       <c r="C149" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -10180,10 +11348,10 @@
         <v>616</v>
       </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>656</v>
       </c>
       <c r="C150" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -10191,32 +11359,32 @@
         <v>616</v>
       </c>
       <c r="B151" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C151" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>499</v>
-      </c>
-      <c r="B152">
-        <v>31</v>
+        <v>616</v>
+      </c>
+      <c r="B152" t="s">
+        <v>542</v>
       </c>
       <c r="C152" t="s">
-        <v>533</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>499</v>
-      </c>
-      <c r="B153">
-        <v>27</v>
+        <v>616</v>
+      </c>
+      <c r="B153" t="s">
+        <v>649</v>
       </c>
       <c r="C153" t="s">
-        <v>531</v>
+        <v>671</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -10224,10 +11392,10 @@
         <v>616</v>
       </c>
       <c r="B154" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="C154" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -10235,10 +11403,10 @@
         <v>616</v>
       </c>
       <c r="B155" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C155" t="s">
-        <v>730</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -10246,10 +11414,10 @@
         <v>616</v>
       </c>
       <c r="B156" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="C156" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -10257,10 +11425,10 @@
         <v>616</v>
       </c>
       <c r="B157" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="C157" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -10268,10 +11436,10 @@
         <v>616</v>
       </c>
       <c r="B158" t="s">
-        <v>656</v>
+        <v>110</v>
       </c>
       <c r="C158" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -10279,10 +11447,10 @@
         <v>616</v>
       </c>
       <c r="B159" t="s">
-        <v>654</v>
+        <v>128</v>
       </c>
       <c r="C159" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -10290,10 +11458,10 @@
         <v>616</v>
       </c>
       <c r="B160" t="s">
-        <v>542</v>
+        <v>658</v>
       </c>
       <c r="C160" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -10301,10 +11469,10 @@
         <v>616</v>
       </c>
       <c r="B161" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C161" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -10312,10 +11480,10 @@
         <v>616</v>
       </c>
       <c r="B162" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="C162" t="s">
-        <v>667</v>
+        <v>498</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -10323,10 +11491,10 @@
         <v>616</v>
       </c>
       <c r="B163" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C163" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -10334,10 +11502,10 @@
         <v>616</v>
       </c>
       <c r="B164" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C164" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -10345,10 +11513,10 @@
         <v>616</v>
       </c>
       <c r="B165" t="s">
-        <v>633</v>
+        <v>439</v>
       </c>
       <c r="C165" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -10356,10 +11524,10 @@
         <v>616</v>
       </c>
       <c r="B166" t="s">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="C166" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -10367,10 +11535,10 @@
         <v>616</v>
       </c>
       <c r="B167" t="s">
-        <v>128</v>
+        <v>648</v>
       </c>
       <c r="C167" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -10378,10 +11546,10 @@
         <v>616</v>
       </c>
       <c r="B168" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C168" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -10389,10 +11557,10 @@
         <v>616</v>
       </c>
       <c r="B169" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="C169" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -10400,10 +11568,10 @@
         <v>616</v>
       </c>
       <c r="B170" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="C170" t="s">
-        <v>498</v>
+        <v>665</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -10411,10 +11579,10 @@
         <v>616</v>
       </c>
       <c r="B171" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C171" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -10422,10 +11590,10 @@
         <v>616</v>
       </c>
       <c r="B172" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="C172" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -10433,105 +11601,2966 @@
         <v>616</v>
       </c>
       <c r="B173" t="s">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="C173" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="B174" t="s">
-        <v>650</v>
+        <v>718</v>
       </c>
       <c r="C174" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="B175" t="s">
-        <v>648</v>
+        <v>717</v>
       </c>
       <c r="C175" t="s">
-        <v>670</v>
+        <v>723</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="B176" t="s">
-        <v>647</v>
+        <v>716</v>
       </c>
       <c r="C176" t="s">
-        <v>669</v>
+        <v>722</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="B177" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="C177" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="B178" t="s">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="C178" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="B179" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="C179" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>616</v>
+        <v>725</v>
       </c>
       <c r="B180" t="s">
-        <v>617</v>
+        <v>726</v>
       </c>
       <c r="C180" t="s">
-        <v>619</v>
+        <v>727</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>616</v>
+        <v>725</v>
       </c>
       <c r="B181" t="s">
-        <v>125</v>
+        <v>728</v>
       </c>
       <c r="C181" t="s">
-        <v>621</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:C181">
-    <sortCondition ref="C154"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>893</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>893</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="23">
+        <v>115</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="23">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="23">
+        <v>114</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="23">
+        <v>45</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="23">
+        <v>129</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="23">
+        <v>33</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="23">
+        <v>117</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="23">
+        <v>38</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="23">
+        <v>123</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="23">
+        <v>126</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="23">
+        <v>34</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="23">
+        <v>118</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="23">
+        <v>35</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="23">
+        <v>119</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="23">
+        <v>36</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="23">
+        <v>120</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="23">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="23">
+        <v>121</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="23">
+        <v>122</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="23">
+        <v>39</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="23">
+        <v>79</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="23">
+        <v>163</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>959</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="23">
+        <v>128</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="23">
+        <v>63</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="23">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="23">
+        <v>3</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="23">
+        <v>4</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="23">
+        <v>5</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="23">
+        <v>8</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="23">
+        <v>9</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="23">
+        <v>10</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="23">
+        <v>11</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="23">
+        <v>13</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="23">
+        <v>14</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="23">
+        <v>15</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="23">
+        <v>16</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="23">
+        <v>17</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="23">
+        <v>20</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="23">
+        <v>55</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="23">
+        <v>56</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="23">
+        <v>57</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="23">
+        <v>58</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="23">
+        <v>65</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="23">
+        <v>66</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="23">
+        <v>67</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="23">
+        <v>69</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="23">
+        <v>70</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="23">
+        <v>71</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="23">
+        <v>72</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="23">
+        <v>75</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="23">
+        <v>76</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="23">
+        <v>77</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="23">
+        <v>86</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="23">
+        <v>87</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="23">
+        <v>88</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="23">
+        <v>89</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="23">
+        <v>92</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="23">
+        <v>93</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="23">
+        <v>94</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="23">
+        <v>95</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="23">
+        <v>97</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="23">
+        <v>98</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="23">
+        <v>99</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="23">
+        <v>100</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="23">
+        <v>101</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="23">
+        <v>104</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="23">
+        <v>139</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="23">
+        <v>140</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="23">
+        <v>141</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="23">
+        <v>142</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="23">
+        <v>149</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="23">
+        <v>150</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="23">
+        <v>151</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="23">
+        <v>153</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="23">
+        <v>154</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="23">
+        <v>155</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="23">
+        <v>156</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="23">
+        <v>159</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="23">
+        <v>160</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="23">
+        <v>161</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="23">
+        <v>28</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="23">
+        <v>29</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="23">
+        <v>46</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="23">
+        <v>47</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="23">
+        <v>112</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="23">
+        <v>113</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="23">
+        <v>130</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="23">
+        <v>131</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="23">
+        <v>31</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="23">
+        <v>44</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="23">
+        <v>48</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="23">
+        <v>21</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="23">
+        <v>22</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="23">
+        <v>24</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="23">
+        <v>25</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="23">
+        <v>51</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="23">
+        <v>52</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="23">
+        <v>53</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="23">
+        <v>61</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="23">
+        <v>80</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="23">
+        <v>81</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="23">
+        <v>105</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="23">
+        <v>106</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="23">
+        <v>108</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="23">
+        <v>109</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="23">
+        <v>135</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="23">
+        <v>136</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="23">
+        <v>137</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="23">
+        <v>145</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="23">
+        <v>147</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="23">
+        <v>164</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="23">
+        <v>165</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="23">
+        <v>166</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="23">
+        <v>167</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>965</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="23">
+        <v>83</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="23">
+        <v>82</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="23">
+        <v>62</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="23">
+        <v>146</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="23">
+        <v>132</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="23">
+        <v>6</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="23">
+        <v>18</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="23">
+        <v>26</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="23">
+        <v>40</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="23">
+        <v>49</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="23">
+        <v>59</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="23">
+        <v>73</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="23">
+        <v>84</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="23">
+        <v>90</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="23">
+        <v>102</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="23">
+        <v>110</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="23">
+        <v>124</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="23">
+        <v>133</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="23">
+        <v>143</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="23">
+        <v>157</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="23">
+        <v>168</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="23">
+        <v>1</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="23">
+        <v>12</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="23">
+        <v>23</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="23">
+        <v>32</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="23">
+        <v>43</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="23">
+        <v>54</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="23">
+        <v>64</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D158" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="23">
+        <v>68</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="23">
+        <v>78</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="23">
+        <v>85</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="23">
+        <v>96</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="23">
+        <v>107</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="23">
+        <v>116</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="23">
+        <v>127</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="23">
+        <v>138</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="23">
+        <v>148</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="23">
+        <v>152</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="23">
+        <v>162</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E169">
+    <sortCondition ref="C30"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C3" t="s">
+        <v>983</v>
+      </c>
+      <c r="D3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>982</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>985</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C8" t="s">
+        <v>687</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>986</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>987</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>988</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>989</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>990</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>991</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>992</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>993</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>695</v>
+      </c>
+      <c r="D16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>995</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" t="s">
+        <v>596</v>
+      </c>
+      <c r="D18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>996</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>997</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>998</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" t="s">
+        <v>500</v>
+      </c>
+      <c r="D32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1058">
   <si>
     <t>信号名</t>
   </si>
@@ -2612,9 +2612,6 @@
     <t>+5 VDC or +3.3 VDC</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Data 4</t>
   </si>
   <si>
@@ -2645,9 +2642,6 @@
     <t>Data 13</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>Data 14</t>
   </si>
   <si>
@@ -2669,9 +2663,6 @@
     <t>Parity/Check Bit Input/Output 9</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>/WE</t>
   </si>
   <si>
@@ -2732,12 +2723,6 @@
     <t>Bank Address 1</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>CK0</t>
   </si>
   <si>
@@ -2762,9 +2747,6 @@
     <t>Byte Mask signal 3</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>Parity/Check Bit Input/Output 10</t>
   </si>
   <si>
@@ -2801,9 +2783,6 @@
     <t>Data 19</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>DQ20</t>
   </si>
   <si>
@@ -2864,9 +2843,6 @@
     <t>Data 27</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>DQ28</t>
   </si>
   <si>
@@ -2933,9 +2909,6 @@
     <t>Data 35</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>DQ36</t>
   </si>
   <si>
@@ -2996,9 +2969,6 @@
     <t>Data 45</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>DQ46</t>
   </si>
   <si>
@@ -3023,9 +2993,6 @@
     <t>Parity/Check Bit Input/Output 13</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>/CAS</t>
   </si>
   <si>
@@ -3074,9 +3041,6 @@
     <t>Bank Address 0</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>CK1</t>
   </si>
   <si>
@@ -3107,9 +3071,6 @@
     <t>Byte Mask signal 7</t>
   </si>
   <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>Parity/Check Bit Input/Output 14</t>
   </si>
   <si>
@@ -3146,9 +3107,6 @@
     <t>Data 51</t>
   </si>
   <si>
-    <t>144</t>
-  </si>
-  <si>
     <t>DQ52</t>
   </si>
   <si>
@@ -3197,9 +3155,6 @@
     <t>Data 59</t>
   </si>
   <si>
-    <t>158</t>
-  </si>
-  <si>
     <t>DQ60</t>
   </si>
   <si>
@@ -3284,10 +3239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/S1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3639,13 +3590,17 @@
   </si>
   <si>
     <t>DQ09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3743,7 +3698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3857,22 +3812,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3933,9 +3877,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3954,9 +3895,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4005,7 +3943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4040,7 +3978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4278,12 +4216,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4300,12 +4238,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -4322,12 +4260,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -4386,12 +4324,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -4450,12 +4388,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -4472,12 +4410,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -4494,12 +4432,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -4558,12 +4496,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -4762,12 +4700,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -4798,12 +4736,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -5058,12 +4996,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -5374,12 +5312,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="26"/>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
@@ -5396,12 +5334,12 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -5418,12 +5356,12 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
@@ -5454,12 +5392,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -6008,12 +5946,12 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="27"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="26"/>
     </row>
     <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
@@ -6240,12 +6178,12 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="26"/>
     </row>
     <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
@@ -6304,12 +6242,12 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="27"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="26"/>
     </row>
     <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -6396,12 +6334,12 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="26"/>
     </row>
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
@@ -6488,12 +6426,12 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="26"/>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
@@ -8262,13 +8200,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A43:D43"/>
@@ -8282,6 +8213,13 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10638,13 +10576,13 @@
         <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="F86">
         <v>111</v>
       </c>
       <c r="G86" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -11706,19 +11644,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>742</v>
       </c>
@@ -11731,2361 +11675,2238 @@
       <c r="D1" s="18" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="E1" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2" s="23">
+        <v>85</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="E3" s="23">
+        <v>86</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="E4" s="23">
+        <v>87</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="E5" s="23">
+        <v>88</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E6" s="23">
+        <v>89</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E7" s="23">
+        <v>90</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="E8" s="23">
+        <v>91</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E9" s="23">
+        <v>92</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="E10" s="23">
+        <v>93</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="E11" s="23">
+        <v>94</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23">
+        <v>94.5</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="E13" s="23">
+        <v>95</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E14" s="23">
+        <v>96</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="23">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="E15" s="23">
+        <v>97</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="E16" s="23">
+        <v>98</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" s="23">
+        <v>99</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="E18" s="23">
+        <v>100</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="E19" s="23">
+        <v>101</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E20" s="23">
+        <v>102</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="23">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="E21" s="23">
+        <v>103</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="E22" s="23">
+        <v>104</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="E23" s="23">
+        <v>105</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="23">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="E24" s="23">
+        <v>106</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="23">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E25" s="23">
+        <v>107</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="23">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E26" s="23">
+        <v>108</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="23">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="E27" s="23">
+        <v>109</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="23">
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E28" s="23">
+        <v>110</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="23">
+        <v>27</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="E29" s="23">
+        <v>111</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="23">
+        <v>28</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E30" s="23">
+        <v>112</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="23">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="E31" s="23">
+        <v>113</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="23">
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="E32" s="23">
+        <v>114</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="23">
+        <v>31</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="E33" s="23">
+        <v>115</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="23">
+        <v>32</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E34" s="23">
+        <v>116</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="23">
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="E35" s="23">
+        <v>117</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="23">
+        <v>34</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="E36" s="23">
+        <v>118</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="B2" s="20" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="23">
+        <v>35</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="E37" s="23">
+        <v>119</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>893</v>
-      </c>
-      <c r="D2" s="20" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="23">
+        <v>36</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="E38" s="23">
+        <v>120</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="23">
-        <v>115</v>
-      </c>
-      <c r="B3" s="20" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="23">
+        <v>37</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="E39" s="23">
+        <v>121</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="23">
+        <v>38</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="E40" s="23">
+        <v>122</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="23">
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="E41" s="23">
+        <v>123</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="23">
+        <v>40</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E42" s="23">
+        <v>124</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="23">
+        <v>40.5</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="23">
+        <v>124.5</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="23">
+        <v>41</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E44" s="23">
+        <v>125</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>899</v>
-      </c>
-      <c r="D3" s="20" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="23">
+        <v>42</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="E45" s="23">
+        <v>126</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="23">
+        <v>43</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E46" s="23">
+        <v>127</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="23">
+        <v>44</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="E47" s="23">
+        <v>128</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>900</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23">
-        <v>30</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="G47" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="23">
+        <v>45</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>962</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="E48" s="23">
+        <v>129</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="23">
+        <v>46</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="E49" s="23">
+        <v>130</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="23">
+        <v>47</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="E50" s="23">
+        <v>131</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="23">
+        <v>48</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="23">
-        <v>114</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="23">
-        <v>45</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="E51" s="23">
+        <v>132</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>954</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="23">
+        <v>49</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E52" s="23">
+        <v>133</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="23">
+        <v>50</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="23">
-        <v>129</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="E53" s="23">
+        <v>134</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="23">
+        <v>51</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="E54" s="23">
+        <v>135</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="23">
+        <v>52</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="E55" s="23">
+        <v>136</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="23">
+        <v>53</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="E56" s="23">
+        <v>137</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="23">
+        <v>54</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E57" s="23">
+        <v>138</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="23">
+        <v>55</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="E58" s="23">
+        <v>139</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="23">
+        <v>56</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="E59" s="23">
+        <v>140</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="G59" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="H59" s="20" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
-        <v>774</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
-        <v>33</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23">
-        <v>117</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="23">
-        <v>38</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>791</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>791</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="23">
-        <v>123</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="23">
-        <v>126</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="23">
-        <v>34</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="23">
-        <v>118</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="23">
-        <v>35</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="23">
-        <v>119</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="23">
-        <v>36</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="23">
-        <v>120</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="23">
-        <v>37</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="23">
-        <v>121</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="23">
-        <v>122</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="23">
-        <v>39</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>793</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>793</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
-        <v>796</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
-        <v>909</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="23">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="23">
+        <v>57</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="E60" s="23">
+        <v>141</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="23">
+        <v>58</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="E61" s="23">
+        <v>142</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="23">
+        <v>59</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E62" s="23">
+        <v>143</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="23">
+        <v>60</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="E63" s="23">
+        <v>144</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="23">
+        <v>61</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="E64" s="23">
+        <v>145</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="23">
+        <v>62</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="23">
+        <v>146</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H65" s="19"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="23">
+        <v>63</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="E66" s="23">
+        <v>147</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="23">
+        <v>64</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E67" s="23">
+        <v>148</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="23">
+        <v>65</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="E68" s="23">
+        <v>149</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="23">
+        <v>66</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="E69" s="23">
+        <v>150</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="23">
+        <v>67</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="E70" s="23">
+        <v>151</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="23">
+        <v>68</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E71" s="23">
+        <v>152</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="23">
+        <v>69</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="E72" s="23">
+        <v>153</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="23">
+        <v>70</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="E73" s="23">
+        <v>154</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>930</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>930</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="23">
+        <v>71</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="E74" s="23">
+        <v>155</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="23">
+        <v>72</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="E75" s="23">
+        <v>156</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="23">
+        <v>73</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E76" s="23">
+        <v>157</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="23">
+        <v>74</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="E77" s="23">
+        <v>158</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="23">
+        <v>75</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="E78" s="23">
+        <v>159</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="23">
+        <v>76</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="E79" s="23">
+        <v>160</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="23">
+        <v>77</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="E80" s="23">
+        <v>161</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="23">
+        <v>78</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E81" s="23">
+        <v>162</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="23">
         <v>79</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>848</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="23">
+      <c r="B82" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>841</v>
+      </c>
+      <c r="E82" s="23">
         <v>163</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>959</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="23">
-        <v>128</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="23">
-        <v>63</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>823</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="23">
-        <v>2</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="23">
-        <v>3</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>749</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="23">
-        <v>4</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="23">
-        <v>5</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="23">
-        <v>8</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="23">
-        <v>9</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="23">
-        <v>10</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="23">
-        <v>11</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="23">
-        <v>13</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="23">
-        <v>14</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="23">
-        <v>15</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="23">
-        <v>16</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="23">
-        <v>17</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="23" t="s">
-        <v>766</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="F82" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="23">
+        <v>80</v>
+      </c>
+      <c r="B83" s="20" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="23">
-        <v>20</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="23">
-        <v>55</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="23">
-        <v>56</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>812</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>812</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="23">
-        <v>57</v>
-      </c>
-      <c r="B48" s="20" t="s">
+      <c r="C83" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="E83" s="23">
+        <v>164</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H83" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="23">
-        <v>58</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="23" t="s">
-        <v>818</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="23">
-        <v>65</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="23">
-        <v>66</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>827</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>827</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="23">
-        <v>67</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="23">
-        <v>69</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="23">
-        <v>70</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="23">
-        <v>71</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="23">
-        <v>72</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="23" t="s">
-        <v>839</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="23">
-        <v>75</v>
-      </c>
-      <c r="B59" s="20" t="s">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="23">
+        <v>81</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="E84" s="23">
+        <v>165</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="23">
+        <v>82</v>
+      </c>
+      <c r="B85" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="D59" s="20" t="s">
+      <c r="C85" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="23">
-        <v>76</v>
-      </c>
-      <c r="B60" s="20" t="s">
+      <c r="E85" s="23">
+        <v>166</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="23">
+        <v>83</v>
+      </c>
+      <c r="B86" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="D60" s="20" t="s">
+      <c r="C86" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="23">
-        <v>77</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="23">
-        <v>86</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="23">
-        <v>87</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>856</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>856</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="23">
-        <v>88</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="23">
-        <v>89</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="23">
-        <v>92</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>865</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>865</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="23">
-        <v>93</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>867</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>867</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="23">
-        <v>94</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="23">
-        <v>95</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>871</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>871</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="23">
-        <v>97</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="23">
-        <v>98</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="23">
-        <v>99</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>877</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>877</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="23">
-        <v>100</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="23">
-        <v>101</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>881</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>881</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="23" t="s">
-        <v>883</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="23">
-        <v>104</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="23">
-        <v>139</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="23">
-        <v>140</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>927</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>927</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="23">
-        <v>141</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>929</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>929</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="23">
-        <v>142</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>931</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>931</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="23" t="s">
-        <v>933</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="23">
-        <v>149</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="23">
-        <v>150</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="23">
-        <v>151</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="23">
-        <v>153</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>942</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>942</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E86" s="23">
+        <v>167</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="23">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>944</v>
+        <v>753</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>944</v>
+        <v>753</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="23">
-        <v>155</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>946</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>946</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="23">
-        <v>156</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>948</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>948</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="23" t="s">
-        <v>950</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>951</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>951</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="23">
-        <v>159</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="23">
-        <v>160</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="23">
-        <v>161</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="23">
-        <v>28</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="23">
-        <v>29</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="23">
-        <v>46</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="23">
-        <v>47</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="23">
-        <v>112</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="23">
-        <v>113</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="23">
-        <v>130</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="23">
-        <v>131</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="23">
-        <v>31</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="23">
-        <v>44</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="23">
-        <v>48</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="23">
-        <v>21</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="23">
-        <v>22</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="23">
-        <v>24</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="23">
-        <v>25</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="23" t="s">
-        <v>805</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="23">
-        <v>51</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="23">
-        <v>52</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="23">
-        <v>53</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="23">
-        <v>61</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="23">
-        <v>80</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="23">
-        <v>81</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="23">
-        <v>105</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="23">
-        <v>106</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="23">
-        <v>108</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D118" s="20" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="23">
-        <v>109</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="23" t="s">
-        <v>920</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="23">
-        <v>135</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D121" s="20" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="23">
-        <v>136</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="23">
-        <v>137</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="23">
-        <v>145</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="23">
-        <v>147</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D125" s="20" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="23">
-        <v>164</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="23">
-        <v>165</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="23">
-        <v>166</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="23">
-        <v>167</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>965</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="23">
-        <v>83</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>852</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="23">
-        <v>82</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="23">
-        <v>62</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D132" s="19"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="23">
-        <v>146</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D133" s="19"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="23">
-        <v>132</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>969</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="23">
-        <v>6</v>
-      </c>
-      <c r="B135" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E87" s="23">
+        <v>168</v>
+      </c>
+      <c r="F87" s="20" t="s">
         <v>753</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="G87" s="20" t="s">
         <v>753</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="H87" s="20" t="s">
         <v>754</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="23">
-        <v>18</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="23">
-        <v>26</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="23">
-        <v>40</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="23" t="s">
-        <v>795</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="23">
-        <v>49</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="23">
-        <v>59</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="23">
-        <v>73</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="23">
-        <v>84</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="23">
-        <v>90</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="23">
-        <v>102</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="23">
-        <v>110</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="23">
-        <v>124</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="23">
-        <v>133</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="23">
-        <v>143</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D149" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="23">
-        <v>157</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="23">
-        <v>168</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="23">
-        <v>1</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="23">
-        <v>12</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="23">
-        <v>23</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="23">
-        <v>32</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="23">
-        <v>43</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="23">
-        <v>54</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="23">
-        <v>64</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="23">
-        <v>68</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D159" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="23">
-        <v>78</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="23">
-        <v>85</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D161" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="23">
-        <v>96</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D162" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="23">
-        <v>107</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D163" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="23">
-        <v>116</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D164" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="23">
-        <v>127</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="23">
-        <v>138</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D166" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="23">
-        <v>148</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="23">
-        <v>152</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="23">
-        <v>162</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D169" s="20" t="s">
-        <v>746</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E169">
-    <sortCondition ref="C30"/>
+    <sortCondition ref="A7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14105,10 +13926,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C1" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14127,16 +13948,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="B3" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="C3" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="D3" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -14155,52 +13976,52 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="B5" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="C5" t="s">
         <v>730</v>
       </c>
       <c r="D5" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="B6" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="C6" t="s">
         <v>457</v>
       </c>
       <c r="D6" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="B7" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="C7" t="s">
         <v>458</v>
       </c>
       <c r="D7" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="B8" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="C8" t="s">
         <v>687</v>
@@ -14211,10 +14032,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="B9" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
       <c r="C9" t="s">
         <v>722</v>
@@ -14225,10 +14046,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="B10" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="C10" t="s">
         <v>702</v>
@@ -14239,38 +14060,38 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="B11" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="D11" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="B12" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="C12" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="D12" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="B13" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="C13" t="s">
         <v>706</v>
@@ -14281,24 +14102,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="B14" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="C14" t="s">
         <v>479</v>
       </c>
       <c r="D14" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="B15" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="C15" t="s">
         <v>429</v>
@@ -14309,10 +14130,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="B16" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="C16" t="s">
         <v>695</v>
@@ -14323,24 +14144,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="B17" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="C17" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="D17" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="B18" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="C18" t="s">
         <v>596</v>
@@ -14351,10 +14172,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="B19" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="C19" t="s">
         <v>119</v>
@@ -14365,10 +14186,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="B20" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="C20" t="s">
         <v>123</v>
@@ -14379,10 +14200,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="B21" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -14393,10 +14214,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="B22" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="C22" t="s">
         <v>108</v>
@@ -14407,10 +14228,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="B23" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="C23" t="s">
         <v>98</v>
@@ -14421,10 +14242,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="B24" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="C24" t="s">
         <v>546</v>
@@ -14435,10 +14256,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="B25" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="C25" t="s">
         <v>204</v>
@@ -14449,13 +14270,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="B26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C26" t="s">
         <v>1031</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1047</v>
       </c>
       <c r="D26" t="s">
         <v>242</v>
@@ -14463,72 +14284,72 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="B27" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="C27" t="s">
         <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="B28" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="C28" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
       <c r="D28" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="B29" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="C29" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="D29" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="B30" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="C30" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="D30" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="B31" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="C31" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
       <c r="D31" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -14547,16 +14368,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="B33" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="C33" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="D33" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>

--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IO引脚列表" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1080">
   <si>
     <t>信号名</t>
   </si>
@@ -3489,9 +3489,6 @@
     <t>F2</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -3545,55 +3542,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Byte Mask signal 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0~D15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0~A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/CAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQMB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/S0~S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/RAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA0 BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK0~CK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CKE1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Byte Mask signal 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notch</t>
+    <t>CKE0 CKE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx to pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx from pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segled_clk</t>
+  </si>
+  <si>
+    <t>segled_dat</t>
+  </si>
+  <si>
+    <t>segled_str</t>
+  </si>
+  <si>
+    <t>D2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3816,7 +3902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3877,6 +3963,9 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3895,6 +3984,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4189,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4216,12 +4308,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4238,12 +4330,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -4260,12 +4352,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -4324,12 +4416,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -4388,12 +4480,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -4410,12 +4502,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -4432,12 +4524,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -4496,12 +4588,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -4700,12 +4792,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -4736,12 +4828,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -4996,12 +5088,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -5312,12 +5404,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
@@ -5334,12 +5426,12 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="27"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -5356,12 +5448,12 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
     </row>
     <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
@@ -5392,12 +5484,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -5946,12 +6038,12 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="24" t="s">
+      <c r="A132" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="27"/>
     </row>
     <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
@@ -6178,12 +6270,12 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
@@ -6242,12 +6334,12 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="25"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="27"/>
     </row>
     <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -6334,12 +6426,12 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B161" s="25"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="27"/>
     </row>
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
@@ -6426,12 +6518,12 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B168" s="25"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="27"/>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
@@ -8200,6 +8292,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A43:D43"/>
@@ -8213,13 +8312,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8231,7 +8323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11644,10 +11736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11722,7 +11814,7 @@
         <v>747</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>748</v>
@@ -11748,7 +11840,7 @@
         <v>749</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>750</v>
@@ -11774,7 +11866,7 @@
         <v>648</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>751</v>
@@ -11800,7 +11892,7 @@
         <v>649</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>752</v>
@@ -11852,7 +11944,7 @@
         <v>650</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>755</v>
@@ -11878,7 +11970,7 @@
         <v>651</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>756</v>
@@ -11904,7 +11996,7 @@
         <v>652</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>757</v>
@@ -11930,7 +12022,7 @@
         <v>653</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>758</v>
@@ -11954,7 +12046,7 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="23">
@@ -11962,7 +12054,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H12" s="20"/>
     </row>
@@ -11974,7 +12066,7 @@
         <v>654</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>759</v>
@@ -12026,7 +12118,7 @@
         <v>655</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>760</v>
@@ -12416,7 +12508,7 @@
         <v>774</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>774</v>
+        <v>1062</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>775</v>
@@ -12457,7 +12549,7 @@
         <v>885</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -12752,7 +12844,7 @@
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="23">
@@ -12760,7 +12852,7 @@
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H43" s="20"/>
     </row>
@@ -12784,7 +12876,7 @@
         <v>898</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>899</v>
@@ -13340,7 +13432,7 @@
         <v>816</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>1045</v>
+        <v>1070</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>817</v>
@@ -13756,7 +13848,7 @@
         <v>840</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>841</v>
@@ -13768,7 +13860,7 @@
         <v>944</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H82" s="20" t="s">
         <v>945</v>
@@ -13902,6 +13994,97 @@
       </c>
       <c r="H87" s="20" t="s">
         <v>754</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="21" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -13916,472 +14099,491 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>964</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>500</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>500</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F3" t="s">
         <v>500</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>967</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>967</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F4" t="s">
         <v>967</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G4" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>500</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>500</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5" t="s">
         <v>500</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>965</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>994</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F6" t="s">
         <v>730</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G6" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="H6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>966</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>995</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F7" t="s">
         <v>457</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G7" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>968</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>996</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F8" t="s">
         <v>458</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G8" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="H8" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>969</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>997</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F9" t="s">
         <v>687</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>970</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>998</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F10" t="s">
         <v>722</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G10" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>971</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>999</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F11" t="s">
         <v>702</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>972</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>1000</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F12" t="s">
         <v>1022</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G12" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>973</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>1001</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F13" t="s">
         <v>1023</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G13" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>974</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F14" t="s">
+        <v>706</v>
+      </c>
+      <c r="G14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>975</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>479</v>
+      </c>
+      <c r="G15" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>974</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C13" t="s">
-        <v>706</v>
-      </c>
-      <c r="D13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>975</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>479</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>976</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>977</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F17" t="s">
+        <v>695</v>
+      </c>
+      <c r="G17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>978</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F18" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>976</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C15" t="s">
-        <v>429</v>
-      </c>
-      <c r="D15" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>977</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C16" t="s">
-        <v>695</v>
-      </c>
-      <c r="D16" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>978</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="G18" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>979</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F19" t="s">
+        <v>596</v>
+      </c>
+      <c r="G19" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>980</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>981</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>982</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>983</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>984</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>985</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F25" t="s">
+        <v>546</v>
+      </c>
+      <c r="G25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>986</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>987</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F27" t="s">
         <v>1030</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>988</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>979</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C18" t="s">
-        <v>596</v>
-      </c>
-      <c r="D18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>980</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>981</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>982</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>983</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>984</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>985</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C24" t="s">
-        <v>546</v>
-      </c>
-      <c r="D24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>986</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>987</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>989</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="s">
         <v>1031</v>
       </c>
-      <c r="D26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>988</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="G29" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>989</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>990</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F30" t="s">
         <v>1032</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G30" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>990</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>991</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F31" t="s">
         <v>1033</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G31" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>991</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="H31" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>992</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F32" t="s">
         <v>1034</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G32" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>992</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="H32" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>500</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>500</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F33" t="s">
         <v>500</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G33" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>993</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>993</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F34" t="s">
         <v>993</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G34" t="s">
         <v>993</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="1083">
   <si>
     <t>信号名</t>
   </si>
@@ -3680,6 +3680,18 @@
   </si>
   <si>
     <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8292,13 +8304,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A43:D43"/>
@@ -8312,6 +8317,13 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14102,7 +14114,7 @@
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14518,6 +14530,9 @@
       <c r="G30" t="s">
         <v>1038</v>
       </c>
+      <c r="H30" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -14526,6 +14541,9 @@
       <c r="B31" t="s">
         <v>1019</v>
       </c>
+      <c r="E31" t="s">
+        <v>1075</v>
+      </c>
       <c r="F31" t="s">
         <v>1033</v>
       </c>
@@ -14533,7 +14551,7 @@
         <v>1039</v>
       </c>
       <c r="H31" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -14543,6 +14561,9 @@
       <c r="B32" t="s">
         <v>1020</v>
       </c>
+      <c r="E32" t="s">
+        <v>1074</v>
+      </c>
       <c r="F32" t="s">
         <v>1034</v>
       </c>
@@ -14550,7 +14571,7 @@
         <v>1040</v>
       </c>
       <c r="H32" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">

--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IO引脚列表" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
     <sheet name="sdram dimm" sheetId="6" r:id="rId4"/>
     <sheet name="勤谋" sheetId="7" r:id="rId5"/>
+    <sheet name="勤谋rasp" sheetId="8" r:id="rId6"/>
+    <sheet name="勤谋cy fifo" sheetId="9" r:id="rId7"/>
+    <sheet name="勤谋cy pio" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1153">
   <si>
     <t>信号名</t>
   </si>
@@ -3683,22 +3686,266 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clk</t>
+    <t>RDY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK  </t>
+  </si>
+  <si>
+    <t>IFCLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDY0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>CTL0</t>
+  </si>
+  <si>
+    <t>CTL2</t>
+  </si>
+  <si>
+    <t>CTL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V   </t>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_to_fpga_CTL0_FLAGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_to_fpga_CTL2_FLAGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_to_fpga_CTL1_FLAGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_RDY1_SLWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_A3_WU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_to_fpga_A7_FLAGD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_A5_FIFOADR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_A6_PKTEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_IFCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_RDY0_SLRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_A0_INT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_A1_INT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_A2_SLOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_A4_FIFOADR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGHZtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_to_fpga_CTL1_FLAGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_to_fpga_CTL2_FLAGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_RDY1_SLWR(印字RDY0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_from_fpga_RDY0_SLRD(印字RDY1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3746,7 +3993,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3792,6 +4039,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC8C8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3914,7 +4167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3987,6 +4240,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4047,7 +4301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4082,7 +4336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14111,496 +14365,2865 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>964</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>500</v>
-      </c>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>500</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>1073</v>
-      </c>
-      <c r="F3" t="s">
-        <v>500</v>
       </c>
       <c r="G3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>967</v>
-      </c>
+      <c r="H3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>967</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C4" t="s">
         <v>967</v>
       </c>
       <c r="G4" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>500</v>
-      </c>
+      <c r="H4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>500</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C5" t="s">
         <v>500</v>
       </c>
       <c r="G5" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="H5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>965</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>994</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>730</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>1024</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C7" t="s">
+        <v>995</v>
+      </c>
+      <c r="G7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C8" t="s">
+        <v>996</v>
+      </c>
+      <c r="G8" t="s">
+        <v>458</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>969</v>
+      </c>
+      <c r="C9" t="s">
+        <v>997</v>
+      </c>
+      <c r="G9" t="s">
+        <v>687</v>
+      </c>
+      <c r="H9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>970</v>
+      </c>
+      <c r="C10" t="s">
+        <v>998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>722</v>
+      </c>
+      <c r="H10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C11" t="s">
+        <v>999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>972</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>973</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G14" t="s">
+        <v>706</v>
+      </c>
+      <c r="H14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>479</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>976</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G16" t="s">
+        <v>429</v>
+      </c>
+      <c r="H16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B17" t="s">
+        <v>977</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G17" t="s">
+        <v>695</v>
+      </c>
+      <c r="H17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B18" t="s">
+        <v>978</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>979</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G19" t="s">
+        <v>596</v>
+      </c>
+      <c r="H19" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>980</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>981</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>984</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>985</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>986</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G26" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>987</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>988</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>989</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>990</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I30" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>966</v>
-      </c>
-      <c r="B7" t="s">
-        <v>995</v>
-      </c>
-      <c r="F7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H7" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>991</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>992</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I32" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>968</v>
-      </c>
-      <c r="B8" t="s">
-        <v>996</v>
-      </c>
-      <c r="F8" t="s">
-        <v>458</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>969</v>
-      </c>
-      <c r="B9" t="s">
-        <v>997</v>
-      </c>
-      <c r="F9" t="s">
-        <v>687</v>
-      </c>
-      <c r="G9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>970</v>
-      </c>
-      <c r="B10" t="s">
-        <v>998</v>
-      </c>
-      <c r="F10" t="s">
-        <v>722</v>
-      </c>
-      <c r="G10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>971</v>
-      </c>
-      <c r="B11" t="s">
-        <v>999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>702</v>
-      </c>
-      <c r="G11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>972</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>973</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>974</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F14" t="s">
-        <v>706</v>
-      </c>
-      <c r="G14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>975</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F15" t="s">
-        <v>479</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>976</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F16" t="s">
-        <v>429</v>
-      </c>
-      <c r="G16" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>977</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F17" t="s">
-        <v>695</v>
-      </c>
-      <c r="G17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>978</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>979</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F19" t="s">
-        <v>596</v>
-      </c>
-      <c r="G19" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>980</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>981</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>982</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>983</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>984</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>985</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F25" t="s">
-        <v>546</v>
-      </c>
-      <c r="G25" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>986</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>987</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>988</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>989</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>990</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>991</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>992</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>500</v>
+        <v>1114</v>
       </c>
       <c r="B33" t="s">
         <v>500</v>
       </c>
-      <c r="F33" t="s">
+      <c r="C33" t="s">
         <v>500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1096</v>
       </c>
       <c r="G33" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>993</v>
+        <v>1115</v>
       </c>
       <c r="B34" t="s">
         <v>993</v>
       </c>
-      <c r="F34" t="s">
+      <c r="C34" t="s">
         <v>993</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1097</v>
       </c>
       <c r="G34" t="s">
         <v>993</v>
       </c>
+      <c r="H34" t="s">
+        <v>993</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>964</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H3" t="s">
+        <v>500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>967</v>
+      </c>
+      <c r="D4" t="s">
+        <v>967</v>
+      </c>
+      <c r="H4" t="s">
+        <v>967</v>
+      </c>
+      <c r="I4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>965</v>
+      </c>
+      <c r="D6" t="s">
+        <v>994</v>
+      </c>
+      <c r="G6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H6" t="s">
+        <v>730</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D7" t="s">
+        <v>995</v>
+      </c>
+      <c r="H7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>968</v>
+      </c>
+      <c r="D8" t="s">
+        <v>996</v>
+      </c>
+      <c r="H8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>969</v>
+      </c>
+      <c r="D9" t="s">
+        <v>997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>687</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" t="s">
+        <v>437</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>970</v>
+      </c>
+      <c r="D10" t="s">
+        <v>998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>722</v>
+      </c>
+      <c r="I10" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" t="s">
+        <v>438</v>
+      </c>
+      <c r="K10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>971</v>
+      </c>
+      <c r="D11" t="s">
+        <v>999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>702</v>
+      </c>
+      <c r="I11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>972</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>973</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>974</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H14" t="s">
+        <v>706</v>
+      </c>
+      <c r="I14" t="s">
+        <v>322</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>975</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>976</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>429</v>
+      </c>
+      <c r="I16" t="s">
+        <v>696</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>977</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>695</v>
+      </c>
+      <c r="I17" t="s">
+        <v>694</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>978</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J18" t="s">
+        <v>430</v>
+      </c>
+      <c r="L18" s="21">
+        <v>21</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>979</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G19" s="21">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>596</v>
+      </c>
+      <c r="I19" t="s">
+        <v>604</v>
+      </c>
+      <c r="J19" s="21">
+        <v>21</v>
+      </c>
+      <c r="L19" s="21">
+        <v>20</v>
+      </c>
+      <c r="M19" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>980</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G20" s="21">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="21">
+        <v>20</v>
+      </c>
+      <c r="L20" s="21">
+        <v>16</v>
+      </c>
+      <c r="M20" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>981</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G21" s="21">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="21">
+        <v>16</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M21" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>982</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G22" s="21">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="21">
+        <v>12</v>
+      </c>
+      <c r="L22" s="21">
+        <v>12</v>
+      </c>
+      <c r="M22" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>983</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="21">
+        <v>5</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M23" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>984</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G24" s="21">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>985</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G25" s="21">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>546</v>
+      </c>
+      <c r="I25" t="s">
+        <v>551</v>
+      </c>
+      <c r="J25" s="21">
+        <v>7</v>
+      </c>
+      <c r="L25" s="21">
+        <v>7</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>986</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G26" s="21">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="21">
+        <v>8</v>
+      </c>
+      <c r="L26" s="21">
+        <v>8</v>
+      </c>
+      <c r="M26" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>987</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G27" s="21">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="21">
+        <v>25</v>
+      </c>
+      <c r="L27" s="21">
+        <v>25</v>
+      </c>
+      <c r="M27" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>988</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G28" s="21">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J28" s="21">
+        <v>24</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M28" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>989</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G29" s="21">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J29" s="21">
+        <v>23</v>
+      </c>
+      <c r="L29" s="21">
+        <v>24</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>990</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G30" s="21">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J30" s="21">
+        <v>18</v>
+      </c>
+      <c r="L30" s="21">
+        <v>23</v>
+      </c>
+      <c r="M30" s="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>991</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G31" s="21">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J31" s="21">
+        <v>15</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M31" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>992</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G32" s="21">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J32" s="21">
+        <v>14</v>
+      </c>
+      <c r="L32" s="21">
+        <v>18</v>
+      </c>
+      <c r="M32" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H33" t="s">
+        <v>500</v>
+      </c>
+      <c r="I33" t="s">
+        <v>500</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L33" s="21">
+        <v>15</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>993</v>
+      </c>
+      <c r="D34" t="s">
+        <v>993</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H34" t="s">
+        <v>993</v>
+      </c>
+      <c r="I34" t="s">
+        <v>993</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L34" s="21">
+        <v>14</v>
+      </c>
+      <c r="M34" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L35" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M35" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L36" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M36" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L37" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>964</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H3" t="s">
+        <v>500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>967</v>
+      </c>
+      <c r="D4" t="s">
+        <v>967</v>
+      </c>
+      <c r="H4" t="s">
+        <v>967</v>
+      </c>
+      <c r="I4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>965</v>
+      </c>
+      <c r="D6" t="s">
+        <v>994</v>
+      </c>
+      <c r="H6" t="s">
+        <v>730</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D7" t="s">
+        <v>995</v>
+      </c>
+      <c r="H7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>968</v>
+      </c>
+      <c r="D8" t="s">
+        <v>996</v>
+      </c>
+      <c r="H8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>969</v>
+      </c>
+      <c r="D9" t="s">
+        <v>997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>687</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>970</v>
+      </c>
+      <c r="D10" t="s">
+        <v>998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>722</v>
+      </c>
+      <c r="I10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>971</v>
+      </c>
+      <c r="D11" t="s">
+        <v>999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>702</v>
+      </c>
+      <c r="I11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>972</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>973</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>974</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>706</v>
+      </c>
+      <c r="I14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>975</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>976</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H16" t="s">
+        <v>429</v>
+      </c>
+      <c r="I16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>977</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H17" t="s">
+        <v>695</v>
+      </c>
+      <c r="I17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>978</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>979</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" t="s">
+        <v>596</v>
+      </c>
+      <c r="I19" t="s">
+        <v>604</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>980</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>981</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>982</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>983</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>984</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>985</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" t="s">
+        <v>546</v>
+      </c>
+      <c r="I25" t="s">
+        <v>551</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>986</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>987</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>988</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>989</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>990</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>991</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>992</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H33" t="s">
+        <v>500</v>
+      </c>
+      <c r="I33" t="s">
+        <v>500</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>993</v>
+      </c>
+      <c r="D34" t="s">
+        <v>993</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H34" t="s">
+        <v>993</v>
+      </c>
+      <c r="I34" t="s">
+        <v>993</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="F5:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>964</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H3" t="s">
+        <v>500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>967</v>
+      </c>
+      <c r="D4" t="s">
+        <v>967</v>
+      </c>
+      <c r="H4" t="s">
+        <v>967</v>
+      </c>
+      <c r="I4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>965</v>
+      </c>
+      <c r="D6" t="s">
+        <v>994</v>
+      </c>
+      <c r="H6" t="s">
+        <v>730</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D7" t="s">
+        <v>995</v>
+      </c>
+      <c r="H7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>968</v>
+      </c>
+      <c r="D8" t="s">
+        <v>996</v>
+      </c>
+      <c r="H8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>969</v>
+      </c>
+      <c r="D9" t="s">
+        <v>997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>687</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>970</v>
+      </c>
+      <c r="D10" t="s">
+        <v>998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>722</v>
+      </c>
+      <c r="I10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>971</v>
+      </c>
+      <c r="D11" t="s">
+        <v>999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>702</v>
+      </c>
+      <c r="I11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>972</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>973</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>974</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>706</v>
+      </c>
+      <c r="I14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>975</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>976</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H16" t="s">
+        <v>429</v>
+      </c>
+      <c r="I16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>977</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>695</v>
+      </c>
+      <c r="I17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>978</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>979</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" t="s">
+        <v>596</v>
+      </c>
+      <c r="I19" t="s">
+        <v>604</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>980</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>981</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>982</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>983</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>984</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>985</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" t="s">
+        <v>546</v>
+      </c>
+      <c r="I25" t="s">
+        <v>551</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>986</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>987</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>988</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>989</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>990</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>991</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>992</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H33" t="s">
+        <v>500</v>
+      </c>
+      <c r="I33" t="s">
+        <v>500</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>993</v>
+      </c>
+      <c r="D34" t="s">
+        <v>993</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H34" t="s">
+        <v>993</v>
+      </c>
+      <c r="I34" t="s">
+        <v>993</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1156">
   <si>
     <t>信号名</t>
   </si>
@@ -3939,13 +3939,25 @@
   </si>
   <si>
     <t>cy_from_fpga_RDY0_SLRD(印字RDY1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_CLK SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4231,6 +4243,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4240,7 +4253,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4301,7 +4313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4336,7 +4348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4574,12 +4586,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4596,12 +4608,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -4618,12 +4630,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -4682,12 +4694,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -4746,12 +4758,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -4768,12 +4780,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -4790,12 +4802,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -4854,12 +4866,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -5058,12 +5070,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -5094,12 +5106,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -5354,12 +5366,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -5670,12 +5682,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
@@ -5692,12 +5704,12 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="28"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -5714,12 +5726,12 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="28"/>
     </row>
     <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
@@ -5750,12 +5762,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -6304,12 +6316,12 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="28"/>
     </row>
     <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
@@ -6536,12 +6548,12 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="28"/>
     </row>
     <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
@@ -6600,12 +6612,12 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="27"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="28"/>
     </row>
     <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -6692,12 +6704,12 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="28"/>
     </row>
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
@@ -6784,12 +6796,12 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="28"/>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
@@ -8558,6 +8570,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A43:D43"/>
@@ -8571,13 +8590,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15867,7 +15879,7 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16085,15 +16097,15 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="C17" t="s">
-        <v>977</v>
+        <v>1155</v>
       </c>
       <c r="D17" t="s">
         <v>1005</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="25" t="s">
         <v>1152</v>
       </c>
       <c r="H17" t="s">
@@ -16117,7 +16129,7 @@
         <v>1006</v>
       </c>
       <c r="E18" t="s">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="H18" t="s">
         <v>1029</v>
@@ -16168,7 +16180,7 @@
       <c r="D20" t="s">
         <v>1008</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="25" t="s">
         <v>1151</v>
       </c>
       <c r="G20" s="21"/>

--- a/fpga/新起点FPGA开发板IO引脚分配表.xlsx
+++ b/fpga/新起点FPGA开发板IO引脚分配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="IO引脚列表" sheetId="3" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="勤谋rasp" sheetId="8" r:id="rId6"/>
     <sheet name="勤谋cy fifo" sheetId="9" r:id="rId7"/>
     <sheet name="勤谋cy pio" sheetId="10" r:id="rId8"/>
+    <sheet name="xilinx" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1206">
   <si>
     <t>信号名</t>
   </si>
@@ -3952,13 +3953,166 @@
   <si>
     <t>U22</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>vga0</t>
+  </si>
+  <si>
+    <t>vga3</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>vga1</t>
+  </si>
+  <si>
+    <t>vga4</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>vga2</t>
+  </si>
+  <si>
+    <t>vga10</t>
+  </si>
+  <si>
+    <t>vga9</t>
+  </si>
+  <si>
+    <t>vga7</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>vga8</t>
+  </si>
+  <si>
+    <t>vga6</t>
+  </si>
+  <si>
+    <t>vga11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>vga5</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>vga12</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>vga13</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>vga14</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>vga15</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>K14</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-804]General"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4004,8 +4158,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4058,6 +4219,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF33FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
@@ -4176,10 +4349,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4253,8 +4427,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4563,15 +4763,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="78.5" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="78.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
@@ -4593,7 +4793,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4607,7 +4807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
@@ -4615,7 +4815,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -4629,7 +4829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
@@ -4637,7 +4837,7 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -4651,7 +4851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4665,7 +4865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -4679,7 +4879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -4693,7 +4893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>24</v>
       </c>
@@ -4701,7 +4901,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -4715,7 +4915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -4729,7 +4929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -4743,7 +4943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -4757,7 +4957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>38</v>
       </c>
@@ -4765,7 +4965,7 @@
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -4779,7 +4979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>41</v>
       </c>
@@ -4787,7 +4987,7 @@
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -4801,7 +5001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>348</v>
       </c>
@@ -4809,7 +5009,7 @@
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>349</v>
       </c>
@@ -4823,7 +5023,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>352</v>
       </c>
@@ -4837,7 +5037,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>355</v>
       </c>
@@ -4851,7 +5051,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>358</v>
       </c>
@@ -4865,7 +5065,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>44</v>
       </c>
@@ -4873,7 +5073,7 @@
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -4887,7 +5087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -4901,7 +5101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -4915,7 +5115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
@@ -4929,7 +5129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
@@ -4943,7 +5143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -4957,7 +5157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -4971,7 +5171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>65</v>
       </c>
@@ -4985,7 +5185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>68</v>
       </c>
@@ -4999,7 +5199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -5013,7 +5213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
@@ -5027,7 +5227,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>77</v>
       </c>
@@ -5041,7 +5241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -5055,7 +5255,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -5069,7 +5269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>86</v>
       </c>
@@ -5077,7 +5277,7 @@
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>87</v>
       </c>
@@ -5091,7 +5291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>90</v>
       </c>
@@ -5105,7 +5305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>93</v>
       </c>
@@ -5113,7 +5313,7 @@
       <c r="C43" s="27"/>
       <c r="D43" s="28"/>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>94</v>
       </c>
@@ -5127,7 +5327,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
@@ -5141,7 +5341,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>132</v>
       </c>
@@ -5155,7 +5355,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>130</v>
       </c>
@@ -5169,7 +5369,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>129</v>
       </c>
@@ -5183,7 +5383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>127</v>
       </c>
@@ -5197,7 +5397,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -5211,7 +5411,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>122</v>
       </c>
@@ -5225,7 +5425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>120</v>
       </c>
@@ -5239,7 +5439,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
@@ -5253,7 +5453,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>116</v>
       </c>
@@ -5267,7 +5467,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>114</v>
       </c>
@@ -5281,7 +5481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>111</v>
       </c>
@@ -5295,7 +5495,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>109</v>
       </c>
@@ -5309,7 +5509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>107</v>
       </c>
@@ -5323,7 +5523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>105</v>
       </c>
@@ -5337,7 +5537,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>103</v>
       </c>
@@ -5351,7 +5551,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
@@ -5365,7 +5565,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>134</v>
       </c>
@@ -5373,7 +5573,7 @@
       <c r="C62" s="27"/>
       <c r="D62" s="28"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>135</v>
       </c>
@@ -5387,7 +5587,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>138</v>
       </c>
@@ -5401,7 +5601,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -5415,7 +5615,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>144</v>
       </c>
@@ -5429,7 +5629,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>147</v>
       </c>
@@ -5443,7 +5643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>150</v>
       </c>
@@ -5457,7 +5657,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>186</v>
       </c>
@@ -5471,7 +5671,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>184</v>
       </c>
@@ -5485,7 +5685,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>182</v>
       </c>
@@ -5499,7 +5699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>180</v>
       </c>
@@ -5513,7 +5713,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>177</v>
       </c>
@@ -5527,7 +5727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>175</v>
       </c>
@@ -5541,7 +5741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>173</v>
       </c>
@@ -5555,7 +5755,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>171</v>
       </c>
@@ -5569,7 +5769,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>169</v>
       </c>
@@ -5583,7 +5783,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>167</v>
       </c>
@@ -5597,7 +5797,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>164</v>
       </c>
@@ -5611,7 +5811,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>162</v>
       </c>
@@ -5625,7 +5825,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>160</v>
       </c>
@@ -5639,7 +5839,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>158</v>
       </c>
@@ -5653,7 +5853,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>156</v>
       </c>
@@ -5667,7 +5867,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>153</v>
       </c>
@@ -5681,7 +5881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>188</v>
       </c>
@@ -5689,7 +5889,7 @@
       <c r="C85" s="27"/>
       <c r="D85" s="28"/>
     </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>189</v>
       </c>
@@ -5703,7 +5903,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>192</v>
       </c>
@@ -5711,7 +5911,7 @@
       <c r="C87" s="27"/>
       <c r="D87" s="28"/>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>328</v>
       </c>
@@ -5725,7 +5925,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>401</v>
       </c>
@@ -5733,7 +5933,7 @@
       <c r="C89" s="27"/>
       <c r="D89" s="28"/>
     </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>196</v>
       </c>
@@ -5747,7 +5947,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>199</v>
       </c>
@@ -5761,7 +5961,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>202</v>
       </c>
@@ -5769,7 +5969,7 @@
       <c r="C92" s="27"/>
       <c r="D92" s="28"/>
     </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>203</v>
       </c>
@@ -5783,7 +5983,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>206</v>
       </c>
@@ -5797,7 +5997,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>209</v>
       </c>
@@ -5811,7 +6011,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>212</v>
       </c>
@@ -5825,7 +6025,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>215</v>
       </c>
@@ -5839,7 +6039,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>218</v>
       </c>
@@ -5853,7 +6053,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>224</v>
       </c>
@@ -5867,7 +6067,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>221</v>
       </c>
@@ -5881,7 +6081,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>287</v>
       </c>
@@ -5895,7 +6095,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>284</v>
       </c>
@@ -5909,7 +6109,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>251</v>
       </c>
@@ -5923,7 +6123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>249</v>
       </c>
@@ -5937,7 +6137,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>247</v>
       </c>
@@ -5951,7 +6151,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" s="1" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>245</v>
       </c>
@@ -5965,7 +6165,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>243</v>
       </c>
@@ -5979,7 +6179,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>241</v>
       </c>
@@ -5993,7 +6193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>239</v>
       </c>
@@ -6007,7 +6207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>237</v>
       </c>
@@ -6021,7 +6221,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>235</v>
       </c>
@@ -6035,7 +6235,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>233</v>
       </c>
@@ -6049,7 +6249,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>231</v>
       </c>
@@ -6063,7 +6263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>229</v>
       </c>
@@ -6077,7 +6277,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>226</v>
       </c>
@@ -6091,7 +6291,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>282</v>
       </c>
@@ -6105,7 +6305,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>280</v>
       </c>
@@ -6119,7 +6319,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>278</v>
       </c>
@@ -6133,7 +6333,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>277</v>
       </c>
@@ -6147,7 +6347,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>275</v>
       </c>
@@ -6161,7 +6361,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>273</v>
       </c>
@@ -6175,7 +6375,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>271</v>
       </c>
@@ -6189,7 +6389,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>269</v>
       </c>
@@ -6203,7 +6403,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>267</v>
       </c>
@@ -6217,7 +6417,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>265</v>
       </c>
@@ -6231,7 +6431,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>263</v>
       </c>
@@ -6245,7 +6445,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>261</v>
       </c>
@@ -6259,7 +6459,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>259</v>
       </c>
@@ -6273,7 +6473,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>257</v>
       </c>
@@ -6287,7 +6487,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>255</v>
       </c>
@@ -6301,7 +6501,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>252</v>
       </c>
@@ -6315,7 +6515,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="26" t="s">
         <v>289</v>
       </c>
@@ -6323,7 +6523,7 @@
       <c r="C132" s="27"/>
       <c r="D132" s="28"/>
     </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>290</v>
       </c>
@@ -6337,7 +6537,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>292</v>
       </c>
@@ -6351,7 +6551,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>295</v>
       </c>
@@ -6365,7 +6565,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>314</v>
       </c>
@@ -6379,7 +6579,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>331</v>
       </c>
@@ -6393,7 +6593,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="30.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>397</v>
       </c>
@@ -6407,7 +6607,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>334</v>
       </c>
@@ -6421,7 +6621,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>336</v>
       </c>
@@ -6435,7 +6635,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>298</v>
       </c>
@@ -6449,7 +6649,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>301</v>
       </c>
@@ -6463,7 +6663,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>303</v>
       </c>
@@ -6477,7 +6677,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>305</v>
       </c>
@@ -6491,7 +6691,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>307</v>
       </c>
@@ -6505,7 +6705,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>309</v>
       </c>
@@ -6519,7 +6719,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>311</v>
       </c>
@@ -6533,7 +6733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>313</v>
       </c>
@@ -6547,7 +6747,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
         <v>316</v>
       </c>
@@ -6555,7 +6755,7 @@
       <c r="C149" s="27"/>
       <c r="D149" s="28"/>
     </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>317</v>
       </c>
@@ -6569,7 +6769,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>319</v>
       </c>
@@ -6583,7 +6783,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>321</v>
       </c>
@@ -6597,7 +6797,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>323</v>
       </c>
@@ -6611,7 +6811,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
         <v>343</v>
       </c>
@@ -6619,7 +6819,7 @@
       <c r="C154" s="27"/>
       <c r="D154" s="28"/>
     </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>344</v>
       </c>
@@ -6633,7 +6833,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>346</v>
       </c>
@@ -6647,7 +6847,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>361</v>
       </c>
@@ -6661,7 +6861,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>363</v>
       </c>
@@ -6675,7 +6875,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>365</v>
       </c>
@@ -6689,7 +6889,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>367</v>
       </c>
@@ -6703,7 +6903,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
         <v>368</v>
       </c>
@@ -6711,7 +6911,7 @@
       <c r="C161" s="27"/>
       <c r="D161" s="28"/>
     </row>
-    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>369</v>
       </c>
@@ -6725,7 +6925,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>371</v>
       </c>
@@ -6739,7 +6939,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>373</v>
       </c>
@@ -6753,7 +6953,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>375</v>
       </c>
@@ -6767,7 +6967,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>378</v>
       </c>
@@ -6781,7 +6981,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>381</v>
       </c>
@@ -6795,7 +6995,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="26" t="s">
         <v>384</v>
       </c>
@@ -6803,7 +7003,7 @@
       <c r="C168" s="27"/>
       <c r="D168" s="28"/>
     </row>
-    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>385</v>
       </c>
@@ -6817,7 +7017,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>388</v>
       </c>
@@ -6831,7 +7031,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>391</v>
       </c>
@@ -6845,7 +7045,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>394</v>
       </c>
@@ -6859,7 +7059,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="E174" s="6" t="s">
         <v>484</v>
       </c>
@@ -6867,7 +7067,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>141</v>
       </c>
@@ -6884,7 +7084,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>144</v>
       </c>
@@ -6901,7 +7101,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>180</v>
       </c>
@@ -6918,7 +7118,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>184</v>
       </c>
@@ -6935,7 +7135,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>164</v>
       </c>
@@ -6952,7 +7152,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>169</v>
       </c>
@@ -6969,7 +7169,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>173</v>
       </c>
@@ -6986,7 +7186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>153</v>
       </c>
@@ -7003,7 +7203,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>158</v>
       </c>
@@ -7020,7 +7220,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>162</v>
       </c>
@@ -7037,7 +7237,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>397</v>
       </c>
@@ -7054,7 +7254,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>290</v>
       </c>
@@ -7071,7 +7271,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>311</v>
       </c>
@@ -7088,7 +7288,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>307</v>
       </c>
@@ -7105,7 +7305,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>303</v>
       </c>
@@ -7122,7 +7322,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>298</v>
       </c>
@@ -7139,7 +7339,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>336</v>
       </c>
@@ -7156,7 +7356,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>334</v>
       </c>
@@ -7173,7 +7373,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -7182,7 +7382,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -7191,10 +7391,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="E195" s="8"/>
     </row>
-    <row r="196" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>138</v>
       </c>
@@ -7214,7 +7414,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>177</v>
       </c>
@@ -7231,7 +7431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>182</v>
       </c>
@@ -7248,7 +7448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>186</v>
       </c>
@@ -7265,7 +7465,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>167</v>
       </c>
@@ -7282,7 +7482,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>171</v>
       </c>
@@ -7299,7 +7499,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>175</v>
       </c>
@@ -7316,7 +7516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>156</v>
       </c>
@@ -7333,7 +7533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>160</v>
       </c>
@@ -7350,7 +7550,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
@@ -7359,7 +7559,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>314</v>
       </c>
@@ -7376,7 +7576,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>313</v>
       </c>
@@ -7393,7 +7593,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>309</v>
       </c>
@@ -7410,7 +7610,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>305</v>
       </c>
@@ -7427,7 +7627,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>301</v>
       </c>
@@ -7444,7 +7644,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>331</v>
       </c>
@@ -7461,7 +7661,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>295</v>
       </c>
@@ -7478,7 +7678,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>292</v>
       </c>
@@ -7495,7 +7695,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="10"/>
@@ -7504,7 +7704,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="13"/>
       <c r="C215" s="10"/>
@@ -7513,7 +7713,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="16"/>
@@ -7521,7 +7721,7 @@
       <c r="E216" s="14"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
@@ -7533,7 +7733,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -7542,7 +7742,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -7551,7 +7751,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>739</v>
       </c>
@@ -7568,7 +7768,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>375</v>
       </c>
@@ -7585,7 +7785,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>381</v>
       </c>
@@ -7602,7 +7802,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>365</v>
       </c>
@@ -7619,7 +7819,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>129</v>
       </c>
@@ -7636,7 +7836,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>132</v>
       </c>
@@ -7653,7 +7853,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>114</v>
       </c>
@@ -7670,7 +7870,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>118</v>
       </c>
@@ -7687,7 +7887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>122</v>
       </c>
@@ -7704,7 +7904,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>103</v>
       </c>
@@ -7721,7 +7921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>107</v>
       </c>
@@ -7738,7 +7938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>97</v>
       </c>
@@ -7755,7 +7955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>94</v>
       </c>
@@ -7772,7 +7972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -7781,7 +7981,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>394</v>
       </c>
@@ -7798,7 +7998,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>388</v>
       </c>
@@ -7815,7 +8015,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -7824,7 +8024,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -7833,14 +8033,14 @@
         <v>432</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
     </row>
-    <row r="239" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -7852,7 +8052,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -7861,7 +8061,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>378</v>
       </c>
@@ -7881,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>373</v>
       </c>
@@ -7901,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>496</v>
       </c>
@@ -7921,7 +8121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>124</v>
       </c>
@@ -7941,7 +8141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>127</v>
       </c>
@@ -7961,7 +8161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>130</v>
       </c>
@@ -7981,7 +8181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>111</v>
       </c>
@@ -8001,7 +8201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>116</v>
       </c>
@@ -8021,7 +8221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>120</v>
       </c>
@@ -8041,7 +8241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>100</v>
       </c>
@@ -8061,7 +8261,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>105</v>
       </c>
@@ -8081,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>109</v>
       </c>
@@ -8101,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -8113,7 +8313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -8125,7 +8325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>391</v>
       </c>
@@ -8145,7 +8345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>495</v>
       </c>
@@ -8165,7 +8365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -8177,7 +8377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -8189,7 +8389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="E260" s="6" t="s">
         <v>486</v>
       </c>
@@ -8197,7 +8397,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -8209,7 +8409,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>135</v>
       </c>
@@ -8226,7 +8426,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -8235,7 +8435,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -8244,7 +8444,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -8253,7 +8453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -8262,7 +8462,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -8271,7 +8471,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -8280,7 +8480,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -8289,7 +8489,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -8298,7 +8498,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -8307,7 +8507,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -8316,7 +8516,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -8325,7 +8525,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>196</v>
       </c>
@@ -8342,7 +8542,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -8351,7 +8551,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>68</v>
       </c>
@@ -8368,7 +8568,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -8377,7 +8577,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
@@ -8389,7 +8589,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>147</v>
       </c>
@@ -8409,7 +8609,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -8418,7 +8618,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
@@ -8427,7 +8627,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>150</v>
       </c>
@@ -8444,7 +8644,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -8453,7 +8653,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -8462,7 +8662,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
@@ -8471,7 +8671,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
@@ -8480,7 +8680,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
@@ -8489,7 +8689,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -8498,7 +8698,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
@@ -8507,7 +8707,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>199</v>
       </c>
@@ -8524,7 +8724,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
@@ -8533,7 +8733,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
@@ -8542,7 +8742,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>83</v>
       </c>
@@ -8559,7 +8759,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
@@ -8570,13 +8770,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A43:D43"/>
@@ -8590,6 +8783,13 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8605,14 +8805,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8626,7 +8826,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8640,7 +8840,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8654,7 +8854,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -8668,7 +8868,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -8682,7 +8882,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -8696,7 +8896,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -8710,7 +8910,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -8724,7 +8924,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -8738,7 +8938,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -8752,7 +8952,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -8766,7 +8966,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -8780,7 +8980,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25</v>
       </c>
@@ -8794,7 +8994,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27</v>
       </c>
@@ -8808,7 +9008,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -8822,7 +9022,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
@@ -8836,7 +9036,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33</v>
       </c>
@@ -8850,7 +9050,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
@@ -8864,7 +9064,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37</v>
       </c>
@@ -8878,7 +9078,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>39</v>
       </c>
@@ -8892,12 +9092,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -8911,7 +9111,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8925,7 +9125,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -8939,7 +9139,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -8953,7 +9153,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -8967,7 +9167,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -8981,7 +9181,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -8995,7 +9195,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -9009,7 +9209,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17</v>
       </c>
@@ -9023,7 +9223,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
@@ -9037,7 +9237,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>21</v>
       </c>
@@ -9051,7 +9251,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23</v>
       </c>
@@ -9065,7 +9265,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>25</v>
       </c>
@@ -9079,7 +9279,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
@@ -9093,7 +9293,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>29</v>
       </c>
@@ -9107,7 +9307,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -9121,7 +9321,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
@@ -9135,7 +9335,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
@@ -9149,7 +9349,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -9163,7 +9363,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -9177,12 +9377,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -9196,7 +9396,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -9210,7 +9410,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -9224,7 +9424,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -9238,7 +9438,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -9252,7 +9452,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -9266,7 +9466,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13</v>
       </c>
@@ -9280,7 +9480,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15</v>
       </c>
@@ -9294,7 +9494,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>17</v>
       </c>
@@ -9308,7 +9508,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19</v>
       </c>
@@ -9322,7 +9522,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -9336,7 +9536,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>23</v>
       </c>
@@ -9350,7 +9550,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>25</v>
       </c>
@@ -9364,7 +9564,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
@@ -9378,7 +9578,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>29</v>
       </c>
@@ -9392,7 +9592,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>31</v>
       </c>
@@ -9406,7 +9606,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>33</v>
       </c>
@@ -9420,7 +9620,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>35</v>
       </c>
@@ -9434,7 +9634,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>37</v>
       </c>
@@ -9448,7 +9648,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>39</v>
       </c>
@@ -9462,12 +9662,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>617</v>
       </c>
@@ -9475,7 +9675,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>618</v>
       </c>
@@ -9483,7 +9683,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -9491,7 +9691,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -9499,7 +9699,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -9507,7 +9707,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -9515,7 +9715,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -9523,7 +9723,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -9531,7 +9731,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -9539,7 +9739,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -9547,7 +9747,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -9555,7 +9755,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -9563,7 +9763,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>439</v>
       </c>
@@ -9571,7 +9771,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>633</v>
       </c>
@@ -9579,7 +9779,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>634</v>
       </c>
@@ -9587,7 +9787,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>636</v>
       </c>
@@ -9595,7 +9795,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>637</v>
       </c>
@@ -9603,7 +9803,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>640</v>
       </c>
@@ -9611,7 +9811,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>641</v>
       </c>
@@ -9619,7 +9819,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>642</v>
       </c>
@@ -9627,7 +9827,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>643</v>
       </c>
@@ -9635,7 +9835,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>644</v>
       </c>
@@ -9643,7 +9843,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>645</v>
       </c>
@@ -9651,7 +9851,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>646</v>
       </c>
@@ -9659,7 +9859,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>647</v>
       </c>
@@ -9667,7 +9867,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>648</v>
       </c>
@@ -9675,7 +9875,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>649</v>
       </c>
@@ -9683,7 +9883,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>650</v>
       </c>
@@ -9691,7 +9891,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>651</v>
       </c>
@@ -9699,7 +9899,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>652</v>
       </c>
@@ -9707,7 +9907,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>653</v>
       </c>
@@ -9715,7 +9915,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>654</v>
       </c>
@@ -9723,7 +9923,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>655</v>
       </c>
@@ -9731,7 +9931,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>656</v>
       </c>
@@ -9739,7 +9939,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>657</v>
       </c>
@@ -9747,7 +9947,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>658</v>
       </c>
@@ -9755,7 +9955,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>659</v>
       </c>
@@ -9763,7 +9963,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>660</v>
       </c>
@@ -9771,7 +9971,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>661</v>
       </c>
@@ -9779,7 +9979,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>682</v>
       </c>
@@ -9787,7 +9987,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>683</v>
       </c>
@@ -9795,7 +9995,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>684</v>
       </c>
@@ -9803,7 +10003,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>685</v>
       </c>
@@ -9811,7 +10011,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>690</v>
       </c>
@@ -9819,7 +10019,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>691</v>
       </c>
@@ -9827,7 +10027,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>692</v>
       </c>
@@ -9835,7 +10035,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>693</v>
       </c>
@@ -9843,12 +10043,12 @@
         <v>697</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>699</v>
       </c>
@@ -9856,7 +10056,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>701</v>
       </c>
@@ -9864,7 +10064,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>703</v>
       </c>
@@ -9872,7 +10072,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>704</v>
       </c>
@@ -9880,12 +10080,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>708</v>
       </c>
@@ -9893,7 +10093,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>709</v>
       </c>
@@ -9901,12 +10101,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>713</v>
       </c>
@@ -9914,7 +10114,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>714</v>
       </c>
@@ -9922,7 +10122,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>715</v>
       </c>
@@ -9930,7 +10130,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>716</v>
       </c>
@@ -9938,7 +10138,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>717</v>
       </c>
@@ -9946,7 +10146,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>718</v>
       </c>
@@ -9954,12 +10154,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>726</v>
       </c>
@@ -9967,7 +10167,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>728</v>
       </c>
@@ -9989,9 +10189,9 @@
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>707</v>
       </c>
@@ -10002,7 +10202,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>707</v>
       </c>
@@ -10013,7 +10213,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>541</v>
       </c>
@@ -10024,7 +10224,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>541</v>
       </c>
@@ -10035,7 +10235,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>541</v>
       </c>
@@ -10046,7 +10246,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>541</v>
       </c>
@@ -10057,7 +10257,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>541</v>
       </c>
@@ -10068,7 +10268,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>541</v>
       </c>
@@ -10079,7 +10279,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -10090,7 +10290,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>541</v>
       </c>
@@ -10101,7 +10301,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>541</v>
       </c>
@@ -10112,7 +10312,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>541</v>
       </c>
@@ -10123,7 +10323,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>541</v>
       </c>
@@ -10134,7 +10334,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>541</v>
       </c>
@@ -10145,7 +10345,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>541</v>
       </c>
@@ -10156,7 +10356,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>541</v>
       </c>
@@ -10167,7 +10367,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>541</v>
       </c>
@@ -10178,7 +10378,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>541</v>
       </c>
@@ -10189,7 +10389,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>541</v>
       </c>
@@ -10200,7 +10400,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>541</v>
       </c>
@@ -10211,7 +10411,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>541</v>
       </c>
@@ -10222,7 +10422,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>541</v>
       </c>
@@ -10233,7 +10433,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>541</v>
       </c>
@@ -10244,7 +10444,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>541</v>
       </c>
@@ -10255,7 +10455,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>541</v>
       </c>
@@ -10266,7 +10466,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>541</v>
       </c>
@@ -10277,7 +10477,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>541</v>
       </c>
@@ -10288,7 +10488,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>541</v>
       </c>
@@ -10299,7 +10499,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -10310,7 +10510,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>541</v>
       </c>
@@ -10321,7 +10521,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>541</v>
       </c>
@@ -10332,7 +10532,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>541</v>
       </c>
@@ -10343,7 +10543,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>541</v>
       </c>
@@ -10354,7 +10554,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>541</v>
       </c>
@@ -10365,7 +10565,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>541</v>
       </c>
@@ -10376,7 +10576,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>541</v>
       </c>
@@ -10387,7 +10587,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>541</v>
       </c>
@@ -10398,7 +10598,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>541</v>
       </c>
@@ -10409,7 +10609,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -10420,7 +10620,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>541</v>
       </c>
@@ -10431,7 +10631,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>541</v>
       </c>
@@ -10442,7 +10642,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>541</v>
       </c>
@@ -10456,7 +10656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>536</v>
       </c>
@@ -10467,7 +10667,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>536</v>
       </c>
@@ -10478,7 +10678,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>536</v>
       </c>
@@ -10489,7 +10689,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>536</v>
       </c>
@@ -10500,7 +10700,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>536</v>
       </c>
@@ -10511,7 +10711,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>536</v>
       </c>
@@ -10522,7 +10722,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>536</v>
       </c>
@@ -10533,7 +10733,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>536</v>
       </c>
@@ -10544,7 +10744,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>536</v>
       </c>
@@ -10555,7 +10755,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>536</v>
       </c>
@@ -10566,7 +10766,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>536</v>
       </c>
@@ -10577,7 +10777,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>536</v>
       </c>
@@ -10588,7 +10788,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -10599,7 +10799,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>536</v>
       </c>
@@ -10610,7 +10810,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>536</v>
       </c>
@@ -10621,7 +10821,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>536</v>
       </c>
@@ -10632,7 +10832,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>536</v>
       </c>
@@ -10643,7 +10843,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>536</v>
       </c>
@@ -10654,7 +10854,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>536</v>
       </c>
@@ -10665,7 +10865,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>536</v>
       </c>
@@ -10676,7 +10876,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>536</v>
       </c>
@@ -10687,7 +10887,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>536</v>
       </c>
@@ -10698,7 +10898,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>536</v>
       </c>
@@ -10709,7 +10909,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>536</v>
       </c>
@@ -10720,7 +10920,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>536</v>
       </c>
@@ -10731,7 +10931,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>536</v>
       </c>
@@ -10742,7 +10942,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>536</v>
       </c>
@@ -10753,7 +10953,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>536</v>
       </c>
@@ -10764,7 +10964,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>536</v>
       </c>
@@ -10775,7 +10975,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -10786,7 +10986,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>536</v>
       </c>
@@ -10797,7 +10997,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>536</v>
       </c>
@@ -10808,7 +11008,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>536</v>
       </c>
@@ -10819,7 +11019,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>536</v>
       </c>
@@ -10830,7 +11030,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>536</v>
       </c>
@@ -10841,7 +11041,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>536</v>
       </c>
@@ -10852,7 +11052,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>536</v>
       </c>
@@ -10863,7 +11063,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>536</v>
       </c>
@@ -10874,7 +11074,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>536</v>
       </c>
@@ -10888,7 +11088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>536</v>
       </c>
@@ -10899,7 +11099,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>499</v>
       </c>
@@ -10910,7 +11110,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>499</v>
       </c>
@@ -10921,7 +11121,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>499</v>
       </c>
@@ -10932,7 +11132,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>499</v>
       </c>
@@ -10955,7 +11155,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>499</v>
       </c>
@@ -10969,7 +11169,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>499</v>
       </c>
@@ -10980,7 +11180,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>499</v>
       </c>
@@ -10991,7 +11191,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>499</v>
       </c>
@@ -11002,7 +11202,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>499</v>
       </c>
@@ -11013,7 +11213,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>499</v>
       </c>
@@ -11024,7 +11224,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>499</v>
       </c>
@@ -11035,7 +11235,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>499</v>
       </c>
@@ -11046,7 +11246,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>499</v>
       </c>
@@ -11057,7 +11257,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>499</v>
       </c>
@@ -11068,7 +11268,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>499</v>
       </c>
@@ -11079,7 +11279,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>499</v>
       </c>
@@ -11090,7 +11290,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>499</v>
       </c>
@@ -11101,7 +11301,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>499</v>
       </c>
@@ -11112,7 +11312,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>499</v>
       </c>
@@ -11123,7 +11323,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -11134,7 +11334,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>499</v>
       </c>
@@ -11145,7 +11345,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>499</v>
       </c>
@@ -11156,7 +11356,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>499</v>
       </c>
@@ -11167,7 +11367,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>499</v>
       </c>
@@ -11178,7 +11378,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>499</v>
       </c>
@@ -11189,7 +11389,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -11200,7 +11400,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -11211,7 +11411,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>499</v>
       </c>
@@ -11222,7 +11422,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>499</v>
       </c>
@@ -11233,7 +11433,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>499</v>
       </c>
@@ -11244,7 +11444,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>499</v>
       </c>
@@ -11255,7 +11455,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>499</v>
       </c>
@@ -11266,7 +11466,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>499</v>
       </c>
@@ -11277,7 +11477,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>499</v>
       </c>
@@ -11288,7 +11488,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>499</v>
       </c>
@@ -11299,7 +11499,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>499</v>
       </c>
@@ -11310,7 +11510,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>499</v>
       </c>
@@ -11321,7 +11521,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>499</v>
       </c>
@@ -11332,7 +11532,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>499</v>
       </c>
@@ -11343,7 +11543,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>499</v>
       </c>
@@ -11354,7 +11554,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>682</v>
       </c>
@@ -11365,7 +11565,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>683</v>
       </c>
@@ -11376,7 +11576,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>684</v>
       </c>
@@ -11387,7 +11587,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>685</v>
       </c>
@@ -11398,7 +11598,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>690</v>
       </c>
@@ -11409,7 +11609,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>691</v>
       </c>
@@ -11420,7 +11620,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>692</v>
       </c>
@@ -11431,7 +11631,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>693</v>
       </c>
@@ -11442,7 +11642,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>698</v>
       </c>
@@ -11453,7 +11653,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>698</v>
       </c>
@@ -11464,7 +11664,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>698</v>
       </c>
@@ -11475,7 +11675,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>698</v>
       </c>
@@ -11486,7 +11686,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>616</v>
       </c>
@@ -11497,7 +11697,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>616</v>
       </c>
@@ -11508,7 +11708,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>616</v>
       </c>
@@ -11519,7 +11719,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>616</v>
       </c>
@@ -11530,7 +11730,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>616</v>
       </c>
@@ -11541,7 +11741,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>616</v>
       </c>
@@ -11552,7 +11752,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>616</v>
       </c>
@@ -11563,7 +11763,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>616</v>
       </c>
@@ -11574,7 +11774,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>616</v>
       </c>
@@ -11585,7 +11785,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>616</v>
       </c>
@@ -11596,7 +11796,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>616</v>
       </c>
@@ -11607,7 +11807,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>616</v>
       </c>
@@ -11618,7 +11818,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>616</v>
       </c>
@@ -11629,7 +11829,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>616</v>
       </c>
@@ -11640,7 +11840,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>616</v>
       </c>
@@ -11651,7 +11851,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>616</v>
       </c>
@@ -11662,7 +11862,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>616</v>
       </c>
@@ -11673,7 +11873,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>616</v>
       </c>
@@ -11684,7 +11884,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>616</v>
       </c>
@@ -11695,7 +11895,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>616</v>
       </c>
@@ -11706,7 +11906,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>616</v>
       </c>
@@ -11717,7 +11917,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>616</v>
       </c>
@@ -11728,7 +11928,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>616</v>
       </c>
@@ -11739,7 +11939,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>616</v>
       </c>
@@ -11750,7 +11950,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>616</v>
       </c>
@@ -11761,7 +11961,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>616</v>
       </c>
@@ -11772,7 +11972,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>616</v>
       </c>
@@ -11783,7 +11983,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>616</v>
       </c>
@@ -11794,7 +11994,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>616</v>
       </c>
@@ -11805,7 +12005,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>616</v>
       </c>
@@ -11816,7 +12016,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>616</v>
       </c>
@@ -11827,7 +12027,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>616</v>
       </c>
@@ -11838,7 +12038,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>616</v>
       </c>
@@ -11849,7 +12049,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>616</v>
       </c>
@@ -11860,7 +12060,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>616</v>
       </c>
@@ -11871,7 +12071,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>616</v>
       </c>
@@ -11882,7 +12082,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>616</v>
       </c>
@@ -11893,7 +12093,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>616</v>
       </c>
@@ -11904,7 +12104,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>616</v>
       </c>
@@ -11915,7 +12115,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>712</v>
       </c>
@@ -11926,7 +12126,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>712</v>
       </c>
@@ -11937,7 +12137,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>712</v>
       </c>
@@ -11948,7 +12148,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>712</v>
       </c>
@@ -11959,7 +12159,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>712</v>
       </c>
@@ -11970,7 +12170,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>712</v>
       </c>
@@ -11981,7 +12181,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>725</v>
       </c>
@@ -11992,7 +12192,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>725</v>
       </c>
@@ -12020,19 +12220,19 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="31.453125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="50.25" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.7265625" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>742</v>
       </c>
@@ -12058,7 +12258,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -12084,7 +12284,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -12110,7 +12310,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -12136,7 +12336,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -12162,7 +12362,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -12188,7 +12388,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -12214,7 +12414,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -12240,7 +12440,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -12266,7 +12466,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -12292,7 +12492,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -12318,7 +12518,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10.5</v>
       </c>
@@ -12336,7 +12536,7 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -12362,7 +12562,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -12388,7 +12588,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -12414,7 +12614,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -12440,7 +12640,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -12466,7 +12666,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -12492,7 +12692,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -12518,7 +12718,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -12544,7 +12744,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -12570,7 +12770,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -12596,7 +12796,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -12622,7 +12822,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -12648,7 +12848,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -12674,7 +12874,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -12700,7 +12900,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>25</v>
       </c>
@@ -12726,7 +12926,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>26</v>
       </c>
@@ -12752,7 +12952,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>27</v>
       </c>
@@ -12778,7 +12978,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>28</v>
       </c>
@@ -12804,7 +13004,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>29</v>
       </c>
@@ -12830,7 +13030,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>30</v>
       </c>
@@ -12856,7 +13056,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>31</v>
       </c>
@@ -12882,7 +13082,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>32</v>
       </c>
@@ -12908,7 +13108,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>33</v>
       </c>
@@ -12934,7 +13134,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>34</v>
       </c>
@@ -12960,7 +13160,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>35</v>
       </c>
@@ -12986,7 +13186,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36</v>
       </c>
@@ -13012,7 +13212,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>37</v>
       </c>
@@ -13038,7 +13238,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>38</v>
       </c>
@@ -13064,7 +13264,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>39</v>
       </c>
@@ -13090,7 +13290,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>40</v>
       </c>
@@ -13116,7 +13316,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>40.5</v>
       </c>
@@ -13134,7 +13334,7 @@
       </c>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>41</v>
       </c>
@@ -13160,7 +13360,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>42</v>
       </c>
@@ -13186,7 +13386,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>43</v>
       </c>
@@ -13212,7 +13412,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>44</v>
       </c>
@@ -13238,7 +13438,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>45</v>
       </c>
@@ -13264,7 +13464,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>46</v>
       </c>
@@ -13290,7 +13490,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>47</v>
       </c>
@@ -13316,7 +13516,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>48</v>
       </c>
@@ -13342,7 +13542,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>49</v>
       </c>
@@ -13368,7 +13568,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>50</v>
       </c>
@@ -13394,7 +13594,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>51</v>
       </c>
@@ -13420,7 +13620,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>52</v>
       </c>
@@ -13446,7 +13646,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>53</v>
       </c>
@@ -13472,7 +13672,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>54</v>
       </c>
@@ -13498,7 +13698,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>55</v>
       </c>
@@ -13524,7 +13724,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>56</v>
       </c>
@@ -13550,7 +13750,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>57</v>
       </c>
@@ -13576,7 +13776,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>58</v>
       </c>
@@ -13602,7 +13802,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>59</v>
       </c>
@@ -13628,7 +13828,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>60</v>
       </c>
@@ -13654,7 +13854,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>61</v>
       </c>
@@ -13680,7 +13880,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>62</v>
       </c>
@@ -13702,7 +13902,7 @@
       </c>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>63</v>
       </c>
@@ -13728,7 +13928,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>64</v>
       </c>
@@ -13754,7 +13954,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>65</v>
       </c>
@@ -13780,7 +13980,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>66</v>
       </c>
@@ -13806,7 +14006,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>67</v>
       </c>
@@ -13832,7 +14032,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>68</v>
       </c>
@@ -13858,7 +14058,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>69</v>
       </c>
@@ -13884,7 +14084,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>70</v>
       </c>
@@ -13910,7 +14110,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>71</v>
       </c>
@@ -13936,7 +14136,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>72</v>
       </c>
@@ -13962,7 +14162,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>73</v>
       </c>
@@ -13988,7 +14188,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>74</v>
       </c>
@@ -14014,7 +14214,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>75</v>
       </c>
@@ -14040,7 +14240,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>76</v>
       </c>
@@ -14066,7 +14266,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>77</v>
       </c>
@@ -14092,7 +14292,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>78</v>
       </c>
@@ -14118,7 +14318,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>79</v>
       </c>
@@ -14144,7 +14344,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>80</v>
       </c>
@@ -14170,7 +14370,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>81</v>
       </c>
@@ -14196,7 +14396,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>82</v>
       </c>
@@ -14222,7 +14422,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>83</v>
       </c>
@@ -14248,7 +14448,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>84</v>
       </c>
@@ -14274,7 +14474,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>1056</v>
       </c>
@@ -14285,7 +14485,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>1057</v>
       </c>
@@ -14293,7 +14493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>1067</v>
       </c>
@@ -14301,7 +14501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>1060</v>
       </c>
@@ -14309,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>1061</v>
       </c>
@@ -14317,7 +14517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>1066</v>
       </c>
@@ -14325,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>1065</v>
       </c>
@@ -14333,7 +14533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>1068</v>
       </c>
@@ -14341,7 +14541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>1063</v>
       </c>
@@ -14349,7 +14549,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>1058</v>
       </c>
@@ -14357,7 +14557,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>1071</v>
       </c>
@@ -14383,9 +14583,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>964</v>
       </c>
@@ -14393,7 +14593,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>500</v>
       </c>
@@ -14410,7 +14610,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>967</v>
       </c>
@@ -14424,7 +14624,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>500</v>
       </c>
@@ -14438,7 +14638,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>965</v>
       </c>
@@ -14452,7 +14652,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>966</v>
       </c>
@@ -14466,7 +14666,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>968</v>
       </c>
@@ -14480,7 +14680,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>969</v>
       </c>
@@ -14494,7 +14694,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>970</v>
       </c>
@@ -14508,7 +14708,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>971</v>
       </c>
@@ -14522,7 +14722,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>972</v>
       </c>
@@ -14536,7 +14736,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>973</v>
       </c>
@@ -14550,7 +14750,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>974</v>
       </c>
@@ -14564,7 +14764,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>975</v>
       </c>
@@ -14578,7 +14778,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>976</v>
       </c>
@@ -14592,7 +14792,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1098</v>
       </c>
@@ -14612,7 +14812,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1099</v>
       </c>
@@ -14632,7 +14832,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1100</v>
       </c>
@@ -14652,7 +14852,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1101</v>
       </c>
@@ -14672,7 +14872,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1102</v>
       </c>
@@ -14692,7 +14892,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1103</v>
       </c>
@@ -14712,7 +14912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1104</v>
       </c>
@@ -14732,7 +14932,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1105</v>
       </c>
@@ -14752,7 +14952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1106</v>
       </c>
@@ -14772,7 +14972,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1107</v>
       </c>
@@ -14792,7 +14992,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1108</v>
       </c>
@@ -14812,7 +15012,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1109</v>
       </c>
@@ -14832,7 +15032,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1110</v>
       </c>
@@ -14852,7 +15052,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1111</v>
       </c>
@@ -14875,7 +15075,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1112</v>
       </c>
@@ -14901,7 +15101,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1113</v>
       </c>
@@ -14927,7 +15127,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1114</v>
       </c>
@@ -14947,7 +15147,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1115</v>
       </c>
@@ -14982,13 +15182,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>964</v>
       </c>
@@ -14996,7 +15196,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>500</v>
       </c>
@@ -15013,7 +15213,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>967</v>
       </c>
@@ -15027,7 +15227,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>500</v>
       </c>
@@ -15041,7 +15241,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>965</v>
       </c>
@@ -15064,7 +15264,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>966</v>
       </c>
@@ -15084,7 +15284,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>968</v>
       </c>
@@ -15104,7 +15304,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>969</v>
       </c>
@@ -15124,7 +15324,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>970</v>
       </c>
@@ -15144,7 +15344,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>971</v>
       </c>
@@ -15164,7 +15364,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>972</v>
       </c>
@@ -15184,7 +15384,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>973</v>
       </c>
@@ -15204,7 +15404,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>974</v>
       </c>
@@ -15224,7 +15424,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>975</v>
       </c>
@@ -15244,7 +15444,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>976</v>
       </c>
@@ -15264,7 +15464,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1146</v>
       </c>
@@ -15287,7 +15487,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1147</v>
       </c>
@@ -15319,7 +15519,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1147</v>
       </c>
@@ -15354,7 +15554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1148</v>
       </c>
@@ -15389,7 +15589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1145</v>
       </c>
@@ -15424,7 +15624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -15459,7 +15659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -15494,7 +15694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -15529,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1106</v>
       </c>
@@ -15561,7 +15761,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1107</v>
       </c>
@@ -15593,7 +15793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1108</v>
       </c>
@@ -15625,7 +15825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1109</v>
       </c>
@@ -15657,7 +15857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1110</v>
       </c>
@@ -15689,7 +15889,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1111</v>
       </c>
@@ -15721,7 +15921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1112</v>
       </c>
@@ -15753,7 +15953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1113</v>
       </c>
@@ -15785,7 +15985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1114</v>
       </c>
@@ -15814,7 +16014,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1115</v>
       </c>
@@ -15843,7 +16043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L35" s="21" t="s">
         <v>1117</v>
       </c>
@@ -15851,7 +16051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L36" s="21" t="s">
         <v>1116</v>
       </c>
@@ -15859,7 +16059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L37" s="21" t="s">
         <v>1116</v>
       </c>
@@ -15878,17 +16078,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>964</v>
       </c>
@@ -15896,7 +16096,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>500</v>
       </c>
@@ -15913,7 +16113,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>967</v>
       </c>
@@ -15927,7 +16127,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>500</v>
       </c>
@@ -15941,7 +16141,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>965</v>
       </c>
@@ -15955,7 +16155,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>966</v>
       </c>
@@ -15969,7 +16169,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>968</v>
       </c>
@@ -15983,7 +16183,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>969</v>
       </c>
@@ -15997,7 +16197,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>970</v>
       </c>
@@ -16011,7 +16211,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>971</v>
       </c>
@@ -16025,7 +16225,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>972</v>
       </c>
@@ -16039,7 +16239,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>973</v>
       </c>
@@ -16053,7 +16253,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>974</v>
       </c>
@@ -16067,7 +16267,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>975</v>
       </c>
@@ -16081,7 +16281,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>976</v>
       </c>
@@ -16095,7 +16295,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1154</v>
       </c>
@@ -16115,7 +16315,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1147</v>
       </c>
@@ -16140,7 +16340,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1147</v>
       </c>
@@ -16167,7 +16367,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1148</v>
       </c>
@@ -16194,7 +16394,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1145</v>
       </c>
@@ -16221,7 +16421,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -16248,7 +16448,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -16275,7 +16475,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -16302,7 +16502,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1106</v>
       </c>
@@ -16326,7 +16526,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1107</v>
       </c>
@@ -16350,7 +16550,7 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1108</v>
       </c>
@@ -16374,7 +16574,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1109</v>
       </c>
@@ -16398,7 +16598,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1110</v>
       </c>
@@ -16422,7 +16622,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1111</v>
       </c>
@@ -16446,7 +16646,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1112</v>
       </c>
@@ -16470,7 +16670,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1113</v>
       </c>
@@ -16494,7 +16694,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1114</v>
       </c>
@@ -16517,7 +16717,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1115</v>
       </c>
@@ -16540,15 +16740,15 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
     </row>
@@ -16567,13 +16767,13 @@
       <selection activeCell="G5" sqref="F5:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>964</v>
       </c>
@@ -16581,7 +16781,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>500</v>
       </c>
@@ -16598,7 +16798,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>967</v>
       </c>
@@ -16612,7 +16812,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>500</v>
       </c>
@@ -16626,7 +16826,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>965</v>
       </c>
@@ -16640,7 +16840,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>966</v>
       </c>
@@ -16654,7 +16854,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>968</v>
       </c>
@@ -16668,7 +16868,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>969</v>
       </c>
@@ -16682,7 +16882,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>970</v>
       </c>
@@ -16696,7 +16896,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>971</v>
       </c>
@@ -16710,7 +16910,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>972</v>
       </c>
@@ -16724,7 +16924,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>973</v>
       </c>
@@ -16738,7 +16938,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>974</v>
       </c>
@@ -16752,7 +16952,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>975</v>
       </c>
@@ -16766,7 +16966,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>976</v>
       </c>
@@ -16780,7 +16980,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1146</v>
       </c>
@@ -16800,7 +17000,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1147</v>
       </c>
@@ -16825,7 +17025,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1147</v>
       </c>
@@ -16852,7 +17052,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1148</v>
       </c>
@@ -16879,7 +17079,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1145</v>
       </c>
@@ -16906,7 +17106,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -16933,7 +17133,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -16960,7 +17160,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -16987,7 +17187,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1106</v>
       </c>
@@ -17011,7 +17211,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1107</v>
       </c>
@@ -17035,7 +17235,7 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1108</v>
       </c>
@@ -17059,7 +17259,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1109</v>
       </c>
@@ -17083,7 +17283,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1110</v>
       </c>
@@ -17107,7 +17307,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1111</v>
       </c>
@@ -17131,7 +17331,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1112</v>
       </c>
@@ -17155,7 +17355,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1113</v>
       </c>
@@ -17179,7 +17379,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1114</v>
       </c>
@@ -17202,7 +17402,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1115</v>
       </c>
@@ -17225,17 +17425,759 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="C3" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="H3" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="32" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="32" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="32" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="32" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="32" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="34" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="35" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
